--- a/Data/2014-2019.xlsx
+++ b/Data/2014-2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GorillaSetups\Desktop\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GorillaSetups\Desktop\2021\2do Semestre\LET\Proyecto\ProyectoLET0010\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EDB25EE-8D32-487E-A328-562E3050C491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871A99AC-1411-4416-8EA8-5A3F0092B66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{2AD6EBAE-ED0D-4E37-85B9-4BFAE05A6CB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>SECCIÓN 1. TOTAL ATENCIONES DE URGENCIA</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>Año</t>
+  </si>
+  <si>
+    <t>TOTAL CAUSAS SISTEMA CIRCULATORIO</t>
+  </si>
+  <si>
+    <t>Infarto agudo miocardio</t>
+  </si>
+  <si>
+    <t>Accidente vascular encefálico</t>
   </si>
 </sst>
 </file>
@@ -461,15 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779A4ADE-402A-457E-96EB-982E9C970E1F}">
-  <dimension ref="A1:D314"/>
+  <dimension ref="A1:G367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D314"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="F315" sqref="F315:G367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,8 +491,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>306115</v>
       </c>
@@ -496,8 +514,17 @@
       <c r="D2">
         <v>2014</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="2">
+        <v>6089</v>
+      </c>
+      <c r="F2" s="2">
+        <v>222</v>
+      </c>
+      <c r="G2" s="2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>301192</v>
       </c>
@@ -510,8 +537,17 @@
       <c r="D3">
         <v>2014</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="2">
+        <v>6484</v>
+      </c>
+      <c r="F3" s="2">
+        <v>222</v>
+      </c>
+      <c r="G3" s="2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>291443</v>
       </c>
@@ -524,8 +560,17 @@
       <c r="D4">
         <v>2014</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="2">
+        <v>6247</v>
+      </c>
+      <c r="F4" s="2">
+        <v>215</v>
+      </c>
+      <c r="G4" s="2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>286706</v>
       </c>
@@ -538,8 +583,17 @@
       <c r="D5">
         <v>2014</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="2">
+        <v>6151</v>
+      </c>
+      <c r="F5" s="2">
+        <v>202</v>
+      </c>
+      <c r="G5" s="2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>279993</v>
       </c>
@@ -552,8 +606,17 @@
       <c r="D6">
         <v>2014</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="2">
+        <v>6032</v>
+      </c>
+      <c r="F6" s="2">
+        <v>199</v>
+      </c>
+      <c r="G6" s="2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>281024</v>
       </c>
@@ -566,8 +629,17 @@
       <c r="D7">
         <v>2014</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="2">
+        <v>6176</v>
+      </c>
+      <c r="F7" s="2">
+        <v>184</v>
+      </c>
+      <c r="G7" s="2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>279978</v>
       </c>
@@ -580,8 +652,17 @@
       <c r="D8">
         <v>2014</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="2">
+        <v>6228</v>
+      </c>
+      <c r="F8" s="2">
+        <v>225</v>
+      </c>
+      <c r="G8" s="2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>287132</v>
       </c>
@@ -594,8 +675,17 @@
       <c r="D9">
         <v>2014</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="2">
+        <v>6506</v>
+      </c>
+      <c r="F9" s="2">
+        <v>185</v>
+      </c>
+      <c r="G9" s="2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>277798</v>
       </c>
@@ -608,8 +698,17 @@
       <c r="D10">
         <v>2014</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="2">
+        <v>6409</v>
+      </c>
+      <c r="F10" s="2">
+        <v>249</v>
+      </c>
+      <c r="G10" s="2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>282972</v>
       </c>
@@ -622,8 +721,17 @@
       <c r="D11">
         <v>2014</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="2">
+        <v>6660</v>
+      </c>
+      <c r="F11" s="2">
+        <v>222</v>
+      </c>
+      <c r="G11" s="2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>323811</v>
       </c>
@@ -636,8 +744,17 @@
       <c r="D12">
         <v>2014</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="2">
+        <v>6469</v>
+      </c>
+      <c r="F12" s="2">
+        <v>203</v>
+      </c>
+      <c r="G12" s="2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>360850</v>
       </c>
@@ -650,8 +767,17 @@
       <c r="D13">
         <v>2014</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="2">
+        <v>6982</v>
+      </c>
+      <c r="F13" s="2">
+        <v>231</v>
+      </c>
+      <c r="G13" s="2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>341627</v>
       </c>
@@ -664,8 +790,17 @@
       <c r="D14">
         <v>2014</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="2">
+        <v>6759</v>
+      </c>
+      <c r="F14" s="2">
+        <v>293</v>
+      </c>
+      <c r="G14" s="2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>327439</v>
       </c>
@@ -678,8 +813,17 @@
       <c r="D15">
         <v>2014</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="2">
+        <v>6874</v>
+      </c>
+      <c r="F15" s="2">
+        <v>261</v>
+      </c>
+      <c r="G15" s="2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>326957</v>
       </c>
@@ -692,8 +836,17 @@
       <c r="D16">
         <v>2014</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="2">
+        <v>7161</v>
+      </c>
+      <c r="F16" s="2">
+        <v>214</v>
+      </c>
+      <c r="G16" s="2">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>326548</v>
       </c>
@@ -706,8 +859,17 @@
       <c r="D17">
         <v>2014</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="2">
+        <v>7136</v>
+      </c>
+      <c r="F17" s="2">
+        <v>250</v>
+      </c>
+      <c r="G17" s="2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>343013</v>
       </c>
@@ -720,8 +882,17 @@
       <c r="D18">
         <v>2014</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="2">
+        <v>7340</v>
+      </c>
+      <c r="F18" s="2">
+        <v>250</v>
+      </c>
+      <c r="G18" s="2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>298587</v>
       </c>
@@ -734,8 +905,17 @@
       <c r="D19">
         <v>2014</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="2">
+        <v>6734</v>
+      </c>
+      <c r="F19" s="2">
+        <v>190</v>
+      </c>
+      <c r="G19" s="2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>321276</v>
       </c>
@@ -748,8 +928,17 @@
       <c r="D20">
         <v>2014</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="2">
+        <v>7254</v>
+      </c>
+      <c r="F20" s="2">
+        <v>224</v>
+      </c>
+      <c r="G20" s="2">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>325140</v>
       </c>
@@ -762,8 +951,17 @@
       <c r="D21">
         <v>2014</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="2">
+        <v>7179</v>
+      </c>
+      <c r="F21" s="2">
+        <v>203</v>
+      </c>
+      <c r="G21" s="2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>329074</v>
       </c>
@@ -776,8 +974,17 @@
       <c r="D22">
         <v>2014</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="2">
+        <v>6931</v>
+      </c>
+      <c r="F22" s="2">
+        <v>227</v>
+      </c>
+      <c r="G22" s="2">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>336037</v>
       </c>
@@ -790,8 +997,17 @@
       <c r="D23">
         <v>2014</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="2">
+        <v>7180</v>
+      </c>
+      <c r="F23" s="2">
+        <v>197</v>
+      </c>
+      <c r="G23" s="2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>319958</v>
       </c>
@@ -804,8 +1020,17 @@
       <c r="D24">
         <v>2014</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="2">
+        <v>6684</v>
+      </c>
+      <c r="F24" s="2">
+        <v>230</v>
+      </c>
+      <c r="G24" s="2">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>324733</v>
       </c>
@@ -818,8 +1043,17 @@
       <c r="D25">
         <v>2014</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="2">
+        <v>6735</v>
+      </c>
+      <c r="F25" s="2">
+        <v>220</v>
+      </c>
+      <c r="G25" s="2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>369840</v>
       </c>
@@ -832,8 +1066,17 @@
       <c r="D26">
         <v>2014</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="2">
+        <v>6766</v>
+      </c>
+      <c r="F26" s="2">
+        <v>237</v>
+      </c>
+      <c r="G26" s="2">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>372659</v>
       </c>
@@ -846,8 +1089,17 @@
       <c r="D27">
         <v>2014</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="2">
+        <v>6724</v>
+      </c>
+      <c r="F27" s="2">
+        <v>215</v>
+      </c>
+      <c r="G27" s="2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>370262</v>
       </c>
@@ -860,8 +1112,17 @@
       <c r="D28">
         <v>2014</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="2">
+        <v>6367</v>
+      </c>
+      <c r="F28" s="2">
+        <v>212</v>
+      </c>
+      <c r="G28" s="2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>355056</v>
       </c>
@@ -874,8 +1135,17 @@
       <c r="D29">
         <v>2014</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="2">
+        <v>6869</v>
+      </c>
+      <c r="F29" s="2">
+        <v>244</v>
+      </c>
+      <c r="G29" s="2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>329690</v>
       </c>
@@ -888,8 +1158,17 @@
       <c r="D30">
         <v>2014</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="2">
+        <v>7058</v>
+      </c>
+      <c r="F30" s="2">
+        <v>238</v>
+      </c>
+      <c r="G30" s="2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>287042</v>
       </c>
@@ -902,8 +1181,17 @@
       <c r="D31">
         <v>2014</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="2">
+        <v>6927</v>
+      </c>
+      <c r="F31" s="2">
+        <v>240</v>
+      </c>
+      <c r="G31" s="2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>289765</v>
       </c>
@@ -916,8 +1204,17 @@
       <c r="D32">
         <v>2014</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="2">
+        <v>7491</v>
+      </c>
+      <c r="F32" s="2">
+        <v>221</v>
+      </c>
+      <c r="G32" s="2">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>293037</v>
       </c>
@@ -930,8 +1227,17 @@
       <c r="D33">
         <v>2014</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="2">
+        <v>7445</v>
+      </c>
+      <c r="F33" s="2">
+        <v>285</v>
+      </c>
+      <c r="G33" s="2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>318074</v>
       </c>
@@ -944,8 +1250,17 @@
       <c r="D34">
         <v>2014</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="2">
+        <v>7286</v>
+      </c>
+      <c r="F34" s="2">
+        <v>268</v>
+      </c>
+      <c r="G34" s="2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>334987</v>
       </c>
@@ -958,8 +1273,17 @@
       <c r="D35">
         <v>2014</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="2">
+        <v>7515</v>
+      </c>
+      <c r="F35" s="2">
+        <v>245</v>
+      </c>
+      <c r="G35" s="2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>330194</v>
       </c>
@@ -972,8 +1296,17 @@
       <c r="D36">
         <v>2014</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="2">
+        <v>7342</v>
+      </c>
+      <c r="F36" s="2">
+        <v>227</v>
+      </c>
+      <c r="G36" s="2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>316712</v>
       </c>
@@ -986,8 +1319,17 @@
       <c r="D37">
         <v>2014</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="2">
+        <v>7190</v>
+      </c>
+      <c r="F37" s="2">
+        <v>258</v>
+      </c>
+      <c r="G37" s="2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>322282</v>
       </c>
@@ -1000,8 +1342,17 @@
       <c r="D38">
         <v>2014</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="2">
+        <v>6894</v>
+      </c>
+      <c r="F38" s="2">
+        <v>250</v>
+      </c>
+      <c r="G38" s="2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>307144</v>
       </c>
@@ -1014,8 +1365,17 @@
       <c r="D39">
         <v>2014</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="2">
+        <v>6507</v>
+      </c>
+      <c r="F39" s="2">
+        <v>239</v>
+      </c>
+      <c r="G39" s="2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>349854</v>
       </c>
@@ -1028,8 +1388,17 @@
       <c r="D40">
         <v>2014</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="2">
+        <v>7756</v>
+      </c>
+      <c r="F40" s="2">
+        <v>272</v>
+      </c>
+      <c r="G40" s="2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>338279</v>
       </c>
@@ -1042,8 +1411,17 @@
       <c r="D41">
         <v>2014</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="2">
+        <v>7063</v>
+      </c>
+      <c r="F41" s="2">
+        <v>220</v>
+      </c>
+      <c r="G41" s="2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>346821</v>
       </c>
@@ -1056,8 +1434,17 @@
       <c r="D42">
         <v>2014</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="2">
+        <v>6913</v>
+      </c>
+      <c r="F42" s="2">
+        <v>244</v>
+      </c>
+      <c r="G42" s="2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>345559</v>
       </c>
@@ -1070,8 +1457,17 @@
       <c r="D43">
         <v>2014</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="2">
+        <v>7126</v>
+      </c>
+      <c r="F43" s="2">
+        <v>217</v>
+      </c>
+      <c r="G43" s="2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>343944</v>
       </c>
@@ -1084,8 +1480,17 @@
       <c r="D44">
         <v>2014</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="2">
+        <v>6452</v>
+      </c>
+      <c r="F44" s="2">
+        <v>205</v>
+      </c>
+      <c r="G44" s="2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>324999</v>
       </c>
@@ -1098,8 +1503,17 @@
       <c r="D45">
         <v>2014</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="2">
+        <v>6234</v>
+      </c>
+      <c r="F45" s="2">
+        <v>209</v>
+      </c>
+      <c r="G45" s="2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>333076</v>
       </c>
@@ -1112,8 +1526,17 @@
       <c r="D46">
         <v>2014</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="2">
+        <v>6744</v>
+      </c>
+      <c r="F46" s="2">
+        <v>208</v>
+      </c>
+      <c r="G46" s="2">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>333791</v>
       </c>
@@ -1126,8 +1549,17 @@
       <c r="D47">
         <v>2014</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="2">
+        <v>6483</v>
+      </c>
+      <c r="F47" s="2">
+        <v>191</v>
+      </c>
+      <c r="G47" s="2">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>326643</v>
       </c>
@@ -1140,8 +1572,17 @@
       <c r="D48">
         <v>2014</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="2">
+        <v>6736</v>
+      </c>
+      <c r="F48" s="2">
+        <v>223</v>
+      </c>
+      <c r="G48" s="2">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>313002</v>
       </c>
@@ -1154,8 +1595,17 @@
       <c r="D49">
         <v>2014</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="2">
+        <v>6668</v>
+      </c>
+      <c r="F49" s="2">
+        <v>219</v>
+      </c>
+      <c r="G49" s="2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>311089</v>
       </c>
@@ -1168,8 +1618,17 @@
       <c r="D50">
         <v>2014</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="2">
+        <v>6226</v>
+      </c>
+      <c r="F50" s="2">
+        <v>210</v>
+      </c>
+      <c r="G50" s="2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>309744</v>
       </c>
@@ -1182,8 +1641,17 @@
       <c r="D51">
         <v>2014</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="2">
+        <v>6098</v>
+      </c>
+      <c r="F51" s="2">
+        <v>215</v>
+      </c>
+      <c r="G51" s="2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>289703</v>
       </c>
@@ -1196,8 +1664,17 @@
       <c r="D52">
         <v>2014</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="2">
+        <v>5895</v>
+      </c>
+      <c r="F52" s="2">
+        <v>190</v>
+      </c>
+      <c r="G52" s="2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>285520</v>
       </c>
@@ -1210,8 +1687,17 @@
       <c r="D53">
         <v>2014</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="2">
+        <v>5687</v>
+      </c>
+      <c r="F53" s="2">
+        <v>217</v>
+      </c>
+      <c r="G53" s="2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>297766</v>
       </c>
@@ -1224,8 +1710,17 @@
       <c r="D54">
         <v>2014</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="2">
+        <v>5794</v>
+      </c>
+      <c r="F54" s="2">
+        <v>192</v>
+      </c>
+      <c r="G54" s="2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>303273</v>
       </c>
@@ -1238,8 +1733,17 @@
       <c r="D55">
         <v>2015</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="2">
+        <v>6211</v>
+      </c>
+      <c r="F55" s="2">
+        <v>205</v>
+      </c>
+      <c r="G55" s="2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>290614</v>
       </c>
@@ -1252,8 +1756,17 @@
       <c r="D56">
         <v>2015</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="2">
+        <v>6049</v>
+      </c>
+      <c r="F56" s="2">
+        <v>224</v>
+      </c>
+      <c r="G56" s="2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>286579</v>
       </c>
@@ -1266,8 +1779,17 @@
       <c r="D57">
         <v>2015</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="2">
+        <v>6113</v>
+      </c>
+      <c r="F57" s="2">
+        <v>216</v>
+      </c>
+      <c r="G57" s="2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>288624</v>
       </c>
@@ -1280,8 +1802,17 @@
       <c r="D58">
         <v>2015</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="2">
+        <v>5812</v>
+      </c>
+      <c r="F58" s="2">
+        <v>218</v>
+      </c>
+      <c r="G58" s="2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>288033</v>
       </c>
@@ -1294,8 +1825,17 @@
       <c r="D59">
         <v>2015</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="2">
+        <v>5826</v>
+      </c>
+      <c r="F59" s="2">
+        <v>253</v>
+      </c>
+      <c r="G59" s="2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>289896</v>
       </c>
@@ -1308,8 +1848,17 @@
       <c r="D60">
         <v>2015</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="2">
+        <v>5941</v>
+      </c>
+      <c r="F60" s="2">
+        <v>224</v>
+      </c>
+      <c r="G60" s="2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>292136</v>
       </c>
@@ -1322,8 +1871,17 @@
       <c r="D61">
         <v>2015</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="2">
+        <v>6024</v>
+      </c>
+      <c r="F61" s="2">
+        <v>265</v>
+      </c>
+      <c r="G61" s="2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>288160</v>
       </c>
@@ -1336,8 +1894,17 @@
       <c r="D62">
         <v>2015</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="2">
+        <v>6444</v>
+      </c>
+      <c r="F62" s="2">
+        <v>238</v>
+      </c>
+      <c r="G62" s="2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>292549</v>
       </c>
@@ -1350,8 +1917,17 @@
       <c r="D63">
         <v>2015</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="2">
+        <v>6538</v>
+      </c>
+      <c r="F63" s="2">
+        <v>279</v>
+      </c>
+      <c r="G63" s="2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>334852</v>
       </c>
@@ -1364,8 +1940,17 @@
       <c r="D64">
         <v>2015</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="2">
+        <v>6718</v>
+      </c>
+      <c r="F64" s="2">
+        <v>231</v>
+      </c>
+      <c r="G64" s="2">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>372946</v>
       </c>
@@ -1378,8 +1963,17 @@
       <c r="D65">
         <v>2015</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="2">
+        <v>6587</v>
+      </c>
+      <c r="F65" s="2">
+        <v>234</v>
+      </c>
+      <c r="G65" s="2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>355626</v>
       </c>
@@ -1392,8 +1986,17 @@
       <c r="D66">
         <v>2015</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="2">
+        <v>6651</v>
+      </c>
+      <c r="F66" s="2">
+        <v>228</v>
+      </c>
+      <c r="G66" s="2">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>347588</v>
       </c>
@@ -1406,8 +2009,17 @@
       <c r="D67">
         <v>2015</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="2">
+        <v>6337</v>
+      </c>
+      <c r="F67" s="2">
+        <v>201</v>
+      </c>
+      <c r="G67" s="2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>366960</v>
       </c>
@@ -1420,8 +2032,17 @@
       <c r="D68">
         <v>2015</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="2">
+        <v>6906</v>
+      </c>
+      <c r="F68" s="2">
+        <v>262</v>
+      </c>
+      <c r="G68" s="2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>359535</v>
       </c>
@@ -1434,8 +2055,17 @@
       <c r="D69">
         <v>2015</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="2">
+        <v>6894</v>
+      </c>
+      <c r="F69" s="2">
+        <v>265</v>
+      </c>
+      <c r="G69" s="2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>365873</v>
       </c>
@@ -1448,8 +2078,17 @@
       <c r="D70">
         <v>2015</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="2">
+        <v>7012</v>
+      </c>
+      <c r="F70" s="2">
+        <v>236</v>
+      </c>
+      <c r="G70" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>358183</v>
       </c>
@@ -1462,8 +2101,17 @@
       <c r="D71">
         <v>2015</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="2">
+        <v>6409</v>
+      </c>
+      <c r="F71" s="2">
+        <v>227</v>
+      </c>
+      <c r="G71" s="2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>358174</v>
       </c>
@@ -1476,8 +2124,17 @@
       <c r="D72">
         <v>2015</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="2">
+        <v>6620</v>
+      </c>
+      <c r="F72" s="2">
+        <v>219</v>
+      </c>
+      <c r="G72" s="2">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>354185</v>
       </c>
@@ -1490,8 +2147,17 @@
       <c r="D73">
         <v>2015</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="2">
+        <v>6507</v>
+      </c>
+      <c r="F73" s="2">
+        <v>234</v>
+      </c>
+      <c r="G73" s="2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>344720</v>
       </c>
@@ -1504,8 +2170,17 @@
       <c r="D74">
         <v>2015</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="2">
+        <v>6477</v>
+      </c>
+      <c r="F74" s="2">
+        <v>295</v>
+      </c>
+      <c r="G74" s="2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>331403</v>
       </c>
@@ -1518,8 +2193,17 @@
       <c r="D75">
         <v>2015</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="2">
+        <v>6411</v>
+      </c>
+      <c r="F75" s="2">
+        <v>260</v>
+      </c>
+      <c r="G75" s="2">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>327718</v>
       </c>
@@ -1532,8 +2216,17 @@
       <c r="D76">
         <v>2015</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="2">
+        <v>6681</v>
+      </c>
+      <c r="F76" s="2">
+        <v>244</v>
+      </c>
+      <c r="G76" s="2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>326543</v>
       </c>
@@ -1546,8 +2239,17 @@
       <c r="D77">
         <v>2015</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="2">
+        <v>6576</v>
+      </c>
+      <c r="F77" s="2">
+        <v>266</v>
+      </c>
+      <c r="G77" s="2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>327201</v>
       </c>
@@ -1560,8 +2262,17 @@
       <c r="D78">
         <v>2015</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="2">
+        <v>6501</v>
+      </c>
+      <c r="F78" s="2">
+        <v>225</v>
+      </c>
+      <c r="G78" s="2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>335193</v>
       </c>
@@ -1574,8 +2285,17 @@
       <c r="D79">
         <v>2015</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="2">
+        <v>6778</v>
+      </c>
+      <c r="F79" s="2">
+        <v>227</v>
+      </c>
+      <c r="G79" s="2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>331000</v>
       </c>
@@ -1588,8 +2308,17 @@
       <c r="D80">
         <v>2015</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="2">
+        <v>6607</v>
+      </c>
+      <c r="F80" s="2">
+        <v>260</v>
+      </c>
+      <c r="G80" s="2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>323336</v>
       </c>
@@ -1602,8 +2331,17 @@
       <c r="D81">
         <v>2015</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="2">
+        <v>7205</v>
+      </c>
+      <c r="F81" s="2">
+        <v>342</v>
+      </c>
+      <c r="G81" s="2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>305035</v>
       </c>
@@ -1616,8 +2354,17 @@
       <c r="D82">
         <v>2015</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="2">
+        <v>6895</v>
+      </c>
+      <c r="F82" s="2">
+        <v>303</v>
+      </c>
+      <c r="G82" s="2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>304856</v>
       </c>
@@ -1630,8 +2377,17 @@
       <c r="D83">
         <v>2015</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="2">
+        <v>7234</v>
+      </c>
+      <c r="F83" s="2">
+        <v>282</v>
+      </c>
+      <c r="G83" s="2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>311807</v>
       </c>
@@ -1644,8 +2400,17 @@
       <c r="D84">
         <v>2015</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="2">
+        <v>7164</v>
+      </c>
+      <c r="F84" s="2">
+        <v>256</v>
+      </c>
+      <c r="G84" s="2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>318195</v>
       </c>
@@ -1658,8 +2423,17 @@
       <c r="D85">
         <v>2015</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="2">
+        <v>6715</v>
+      </c>
+      <c r="F85" s="2">
+        <v>262</v>
+      </c>
+      <c r="G85" s="2">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>361368</v>
       </c>
@@ -1672,8 +2446,17 @@
       <c r="D86">
         <v>2015</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="2">
+        <v>7253</v>
+      </c>
+      <c r="F86" s="2">
+        <v>302</v>
+      </c>
+      <c r="G86" s="2">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>397335</v>
       </c>
@@ -1686,8 +2469,17 @@
       <c r="D87">
         <v>2015</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E87" s="2">
+        <v>7072</v>
+      </c>
+      <c r="F87" s="2">
+        <v>315</v>
+      </c>
+      <c r="G87" s="2">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>399470</v>
       </c>
@@ -1700,8 +2492,17 @@
       <c r="D88">
         <v>2015</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E88" s="2">
+        <v>7250</v>
+      </c>
+      <c r="F88" s="2">
+        <v>287</v>
+      </c>
+      <c r="G88" s="2">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>388585</v>
       </c>
@@ -1714,8 +2515,17 @@
       <c r="D89">
         <v>2015</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E89" s="2">
+        <v>6632</v>
+      </c>
+      <c r="F89" s="2">
+        <v>271</v>
+      </c>
+      <c r="G89" s="2">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>361886</v>
       </c>
@@ -1728,8 +2538,17 @@
       <c r="D90">
         <v>2015</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E90" s="2">
+        <v>6578</v>
+      </c>
+      <c r="F90" s="2">
+        <v>239</v>
+      </c>
+      <c r="G90" s="2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>346696</v>
       </c>
@@ -1742,8 +2561,17 @@
       <c r="D91">
         <v>2015</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E91" s="2">
+        <v>6288</v>
+      </c>
+      <c r="F91" s="2">
+        <v>240</v>
+      </c>
+      <c r="G91" s="2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>392376</v>
       </c>
@@ -1756,8 +2584,17 @@
       <c r="D92">
         <v>2015</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E92" s="2">
+        <v>7680</v>
+      </c>
+      <c r="F92" s="2">
+        <v>266</v>
+      </c>
+      <c r="G92" s="2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>371197</v>
       </c>
@@ -1770,8 +2607,17 @@
       <c r="D93">
         <v>2015</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E93" s="2">
+        <v>7629</v>
+      </c>
+      <c r="F93" s="2">
+        <v>328</v>
+      </c>
+      <c r="G93" s="2">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>365710</v>
       </c>
@@ -1784,8 +2630,17 @@
       <c r="D94">
         <v>2015</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E94" s="2">
+        <v>7154</v>
+      </c>
+      <c r="F94" s="2">
+        <v>247</v>
+      </c>
+      <c r="G94" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>364049</v>
       </c>
@@ -1798,8 +2653,17 @@
       <c r="D95">
         <v>2015</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E95" s="2">
+        <v>7062</v>
+      </c>
+      <c r="F95" s="2">
+        <v>245</v>
+      </c>
+      <c r="G95" s="2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>361029</v>
       </c>
@@ -1812,8 +2676,17 @@
       <c r="D96">
         <v>2015</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E96" s="2">
+        <v>7022</v>
+      </c>
+      <c r="F96" s="2">
+        <v>227</v>
+      </c>
+      <c r="G96" s="2">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>358428</v>
       </c>
@@ -1826,8 +2699,17 @@
       <c r="D97">
         <v>2015</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E97" s="2">
+        <v>6955</v>
+      </c>
+      <c r="F97" s="2">
+        <v>233</v>
+      </c>
+      <c r="G97" s="2">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>358398</v>
       </c>
@@ -1840,8 +2722,17 @@
       <c r="D98">
         <v>2015</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E98" s="2">
+        <v>6873</v>
+      </c>
+      <c r="F98" s="2">
+        <v>239</v>
+      </c>
+      <c r="G98" s="2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>355925</v>
       </c>
@@ -1854,8 +2745,17 @@
       <c r="D99">
         <v>2015</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E99" s="2">
+        <v>6813</v>
+      </c>
+      <c r="F99" s="2">
+        <v>266</v>
+      </c>
+      <c r="G99" s="2">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>356073</v>
       </c>
@@ -1868,8 +2768,17 @@
       <c r="D100">
         <v>2015</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E100" s="2">
+        <v>6567</v>
+      </c>
+      <c r="F100" s="2">
+        <v>242</v>
+      </c>
+      <c r="G100" s="2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>348728</v>
       </c>
@@ -1882,8 +2791,17 @@
       <c r="D101">
         <v>2015</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E101" s="2">
+        <v>6289</v>
+      </c>
+      <c r="F101" s="2">
+        <v>229</v>
+      </c>
+      <c r="G101" s="2">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>343807</v>
       </c>
@@ -1896,8 +2814,17 @@
       <c r="D102">
         <v>2015</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E102" s="2">
+        <v>6414</v>
+      </c>
+      <c r="F102" s="2">
+        <v>208</v>
+      </c>
+      <c r="G102" s="2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>333984</v>
       </c>
@@ -1910,8 +2837,17 @@
       <c r="D103">
         <v>2015</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E103" s="2">
+        <v>6153</v>
+      </c>
+      <c r="F103" s="2">
+        <v>237</v>
+      </c>
+      <c r="G103" s="2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>310438</v>
       </c>
@@ -1924,8 +2860,17 @@
       <c r="D104">
         <v>2015</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E104" s="2">
+        <v>6196</v>
+      </c>
+      <c r="F104" s="2">
+        <v>243</v>
+      </c>
+      <c r="G104" s="2">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>301111</v>
       </c>
@@ -1938,8 +2883,17 @@
       <c r="D105">
         <v>2015</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E105" s="2">
+        <v>5673</v>
+      </c>
+      <c r="F105" s="2">
+        <v>282</v>
+      </c>
+      <c r="G105" s="2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>320852</v>
       </c>
@@ -1952,8 +2906,17 @@
       <c r="D106">
         <v>2015</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E106" s="2">
+        <v>6129</v>
+      </c>
+      <c r="F106" s="2">
+        <v>293</v>
+      </c>
+      <c r="G106" s="2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>327439</v>
       </c>
@@ -1966,8 +2929,17 @@
       <c r="D107">
         <v>2016</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E107" s="2">
+        <v>6838</v>
+      </c>
+      <c r="F107" s="2">
+        <v>279</v>
+      </c>
+      <c r="G107" s="2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>304496</v>
       </c>
@@ -1980,8 +2952,17 @@
       <c r="D108">
         <v>2016</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E108" s="2">
+        <v>6345</v>
+      </c>
+      <c r="F108" s="2">
+        <v>271</v>
+      </c>
+      <c r="G108" s="2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>311708</v>
       </c>
@@ -1994,8 +2975,17 @@
       <c r="D109">
         <v>2016</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E109" s="2">
+        <v>6336</v>
+      </c>
+      <c r="F109" s="2">
+        <v>232</v>
+      </c>
+      <c r="G109" s="2">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>305266</v>
       </c>
@@ -2008,8 +2998,17 @@
       <c r="D110">
         <v>2016</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E110" s="2">
+        <v>6344</v>
+      </c>
+      <c r="F110" s="2">
+        <v>238</v>
+      </c>
+      <c r="G110" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>300011</v>
       </c>
@@ -2022,8 +3021,17 @@
       <c r="D111">
         <v>2016</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E111" s="2">
+        <v>6172</v>
+      </c>
+      <c r="F111" s="2">
+        <v>244</v>
+      </c>
+      <c r="G111" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>300423</v>
       </c>
@@ -2036,8 +3044,17 @@
       <c r="D112">
         <v>2016</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E112" s="2">
+        <v>6291</v>
+      </c>
+      <c r="F112" s="2">
+        <v>282</v>
+      </c>
+      <c r="G112" s="2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>297735</v>
       </c>
@@ -2050,8 +3067,17 @@
       <c r="D113">
         <v>2016</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E113" s="2">
+        <v>6246</v>
+      </c>
+      <c r="F113" s="2">
+        <v>263</v>
+      </c>
+      <c r="G113" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>298700</v>
       </c>
@@ -2064,8 +3090,17 @@
       <c r="D114">
         <v>2016</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E114" s="2">
+        <v>5917</v>
+      </c>
+      <c r="F114" s="2">
+        <v>250</v>
+      </c>
+      <c r="G114" s="2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>291216</v>
       </c>
@@ -2078,8 +3113,17 @@
       <c r="D115">
         <v>2016</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E115" s="2">
+        <v>5846</v>
+      </c>
+      <c r="F115" s="2">
+        <v>218</v>
+      </c>
+      <c r="G115" s="2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>315077</v>
       </c>
@@ -2092,8 +3136,17 @@
       <c r="D116">
         <v>2016</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E116" s="2">
+        <v>6150</v>
+      </c>
+      <c r="F116" s="2">
+        <v>230</v>
+      </c>
+      <c r="G116" s="2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>357187</v>
       </c>
@@ -2106,8 +3159,17 @@
       <c r="D117">
         <v>2016</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E117" s="2">
+        <v>6224</v>
+      </c>
+      <c r="F117" s="2">
+        <v>203</v>
+      </c>
+      <c r="G117" s="2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>359130</v>
       </c>
@@ -2120,8 +3182,17 @@
       <c r="D118">
         <v>2016</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E118" s="2">
+        <v>6156</v>
+      </c>
+      <c r="F118" s="2">
+        <v>240</v>
+      </c>
+      <c r="G118" s="2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>351456</v>
       </c>
@@ -2134,8 +3205,17 @@
       <c r="D119">
         <v>2016</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E119" s="2">
+        <v>6454</v>
+      </c>
+      <c r="F119" s="2">
+        <v>247</v>
+      </c>
+      <c r="G119" s="2">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>339488</v>
       </c>
@@ -2148,8 +3228,17 @@
       <c r="D120">
         <v>2016</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E120" s="2">
+        <v>6443</v>
+      </c>
+      <c r="F120" s="2">
+        <v>226</v>
+      </c>
+      <c r="G120" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>329856</v>
       </c>
@@ -2162,8 +3251,17 @@
       <c r="D121">
         <v>2016</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E121" s="2">
+        <v>6432</v>
+      </c>
+      <c r="F121" s="2">
+        <v>267</v>
+      </c>
+      <c r="G121" s="2">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>314002</v>
       </c>
@@ -2176,8 +3274,17 @@
       <c r="D122">
         <v>2016</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E122" s="2">
+        <v>6406</v>
+      </c>
+      <c r="F122" s="2">
+        <v>275</v>
+      </c>
+      <c r="G122" s="2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>332512</v>
       </c>
@@ -2190,8 +3297,17 @@
       <c r="D123">
         <v>2016</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E123" s="2">
+        <v>6607</v>
+      </c>
+      <c r="F123" s="2">
+        <v>245</v>
+      </c>
+      <c r="G123" s="2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>339125</v>
       </c>
@@ -2204,8 +3320,17 @@
       <c r="D124">
         <v>2016</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E124" s="2">
+        <v>6618</v>
+      </c>
+      <c r="F124" s="2">
+        <v>277</v>
+      </c>
+      <c r="G124" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>338822</v>
       </c>
@@ -2218,8 +3343,17 @@
       <c r="D125">
         <v>2016</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E125" s="2">
+        <v>6543</v>
+      </c>
+      <c r="F125" s="2">
+        <v>279</v>
+      </c>
+      <c r="G125" s="2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>342782</v>
       </c>
@@ -2232,8 +3366,17 @@
       <c r="D126">
         <v>2016</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E126" s="2">
+        <v>6761</v>
+      </c>
+      <c r="F126" s="2">
+        <v>260</v>
+      </c>
+      <c r="G126" s="2">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>353613</v>
       </c>
@@ -2246,8 +3389,17 @@
       <c r="D127">
         <v>2016</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E127" s="2">
+        <v>6920</v>
+      </c>
+      <c r="F127" s="2">
+        <v>288</v>
+      </c>
+      <c r="G127" s="2">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>329387</v>
       </c>
@@ -2260,8 +3412,17 @@
       <c r="D128">
         <v>2016</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E128" s="2">
+        <v>6318</v>
+      </c>
+      <c r="F128" s="2">
+        <v>280</v>
+      </c>
+      <c r="G128" s="2">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>348166</v>
       </c>
@@ -2274,8 +3435,17 @@
       <c r="D129">
         <v>2016</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E129" s="2">
+        <v>6680</v>
+      </c>
+      <c r="F129" s="2">
+        <v>278</v>
+      </c>
+      <c r="G129" s="2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>360103</v>
       </c>
@@ -2288,8 +3458,17 @@
       <c r="D130">
         <v>2016</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E130" s="2">
+        <v>6775</v>
+      </c>
+      <c r="F130" s="2">
+        <v>285</v>
+      </c>
+      <c r="G130" s="2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>366586</v>
       </c>
@@ -2302,8 +3481,17 @@
       <c r="D131">
         <v>2016</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E131" s="2">
+        <v>6888</v>
+      </c>
+      <c r="F131" s="2">
+        <v>257</v>
+      </c>
+      <c r="G131" s="2">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>374116</v>
       </c>
@@ -2316,8 +3504,17 @@
       <c r="D132">
         <v>2016</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E132" s="2">
+        <v>6554</v>
+      </c>
+      <c r="F132" s="2">
+        <v>318</v>
+      </c>
+      <c r="G132" s="2">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>362462</v>
       </c>
@@ -2330,8 +3527,17 @@
       <c r="D133">
         <v>2016</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E133" s="2">
+        <v>6626</v>
+      </c>
+      <c r="F133" s="2">
+        <v>264</v>
+      </c>
+      <c r="G133" s="2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>334516</v>
       </c>
@@ -2344,8 +3550,17 @@
       <c r="D134">
         <v>2016</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E134" s="2">
+        <v>6342</v>
+      </c>
+      <c r="F134" s="2">
+        <v>264</v>
+      </c>
+      <c r="G134" s="2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>328921</v>
       </c>
@@ -2358,8 +3573,17 @@
       <c r="D135">
         <v>2016</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E135" s="2">
+        <v>6843</v>
+      </c>
+      <c r="F135" s="2">
+        <v>302</v>
+      </c>
+      <c r="G135" s="2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>333111</v>
       </c>
@@ -2372,8 +3596,17 @@
       <c r="D136">
         <v>2016</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E136" s="2">
+        <v>6825</v>
+      </c>
+      <c r="F136" s="2">
+        <v>329</v>
+      </c>
+      <c r="G136" s="2">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>346293</v>
       </c>
@@ -2386,8 +3619,17 @@
       <c r="D137">
         <v>2016</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E137" s="2">
+        <v>6853</v>
+      </c>
+      <c r="F137" s="2">
+        <v>256</v>
+      </c>
+      <c r="G137" s="2">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>371176</v>
       </c>
@@ -2400,8 +3642,17 @@
       <c r="D138">
         <v>2016</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E138" s="2">
+        <v>6703</v>
+      </c>
+      <c r="F138" s="2">
+        <v>285</v>
+      </c>
+      <c r="G138" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>381661</v>
       </c>
@@ -2414,8 +3665,17 @@
       <c r="D139">
         <v>2016</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E139" s="2">
+        <v>6543</v>
+      </c>
+      <c r="F139" s="2">
+        <v>281</v>
+      </c>
+      <c r="G139" s="2">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>366293</v>
       </c>
@@ -2428,8 +3688,17 @@
       <c r="D140">
         <v>2016</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E140" s="2">
+        <v>6400</v>
+      </c>
+      <c r="F140" s="2">
+        <v>219</v>
+      </c>
+      <c r="G140" s="2">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>364155</v>
       </c>
@@ -2442,8 +3711,17 @@
       <c r="D141">
         <v>2016</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E141" s="2">
+        <v>6780</v>
+      </c>
+      <c r="F141" s="2">
+        <v>242</v>
+      </c>
+      <c r="G141" s="2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>373230</v>
       </c>
@@ -2456,8 +3734,17 @@
       <c r="D142">
         <v>2016</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E142" s="2">
+        <v>6749</v>
+      </c>
+      <c r="F142" s="2">
+        <v>276</v>
+      </c>
+      <c r="G142" s="2">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>345940</v>
       </c>
@@ -2470,8 +3757,17 @@
       <c r="D143">
         <v>2016</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E143" s="2">
+        <v>5974</v>
+      </c>
+      <c r="F143" s="2">
+        <v>280</v>
+      </c>
+      <c r="G143" s="2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>373141</v>
       </c>
@@ -2484,8 +3780,17 @@
       <c r="D144">
         <v>2016</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E144" s="2">
+        <v>6380</v>
+      </c>
+      <c r="F144" s="2">
+        <v>260</v>
+      </c>
+      <c r="G144" s="2">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>359327</v>
       </c>
@@ -2498,8 +3803,17 @@
       <c r="D145">
         <v>2016</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E145" s="2">
+        <v>6348</v>
+      </c>
+      <c r="F145" s="2">
+        <v>256</v>
+      </c>
+      <c r="G145" s="2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>353062</v>
       </c>
@@ -2512,8 +3826,17 @@
       <c r="D146">
         <v>2016</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E146" s="2">
+        <v>6311</v>
+      </c>
+      <c r="F146" s="2">
+        <v>248</v>
+      </c>
+      <c r="G146" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>353544</v>
       </c>
@@ -2526,8 +3849,17 @@
       <c r="D147">
         <v>2016</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E147" s="2">
+        <v>6372</v>
+      </c>
+      <c r="F147" s="2">
+        <v>219</v>
+      </c>
+      <c r="G147" s="2">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>337158</v>
       </c>
@@ -2540,8 +3872,17 @@
       <c r="D148">
         <v>2016</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E148" s="2">
+        <v>6489</v>
+      </c>
+      <c r="F148" s="2">
+        <v>239</v>
+      </c>
+      <c r="G148" s="2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>328712</v>
       </c>
@@ -2554,8 +3895,17 @@
       <c r="D149">
         <v>2016</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E149" s="2">
+        <v>6369</v>
+      </c>
+      <c r="F149" s="2">
+        <v>276</v>
+      </c>
+      <c r="G149" s="2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>320582</v>
       </c>
@@ -2568,8 +3918,17 @@
       <c r="D150">
         <v>2016</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E150" s="2">
+        <v>6228</v>
+      </c>
+      <c r="F150" s="2">
+        <v>244</v>
+      </c>
+      <c r="G150" s="2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>318168</v>
       </c>
@@ -2582,8 +3941,17 @@
       <c r="D151">
         <v>2016</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E151" s="2">
+        <v>6028</v>
+      </c>
+      <c r="F151" s="2">
+        <v>234</v>
+      </c>
+      <c r="G151" s="2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>309589</v>
       </c>
@@ -2596,8 +3964,17 @@
       <c r="D152">
         <v>2016</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E152" s="2">
+        <v>5949</v>
+      </c>
+      <c r="F152" s="2">
+        <v>223</v>
+      </c>
+      <c r="G152" s="2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>323140</v>
       </c>
@@ -2610,8 +3987,17 @@
       <c r="D153">
         <v>2016</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E153" s="2">
+        <v>6292</v>
+      </c>
+      <c r="F153" s="2">
+        <v>248</v>
+      </c>
+      <c r="G153" s="2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>316025</v>
       </c>
@@ -2624,8 +4010,17 @@
       <c r="D154">
         <v>2016</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E154" s="2">
+        <v>6025</v>
+      </c>
+      <c r="F154" s="2">
+        <v>246</v>
+      </c>
+      <c r="G154" s="2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>313748</v>
       </c>
@@ -2638,8 +4033,17 @@
       <c r="D155">
         <v>2016</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E155" s="2">
+        <v>6140</v>
+      </c>
+      <c r="F155" s="2">
+        <v>232</v>
+      </c>
+      <c r="G155" s="2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>302873</v>
       </c>
@@ -2652,8 +4056,17 @@
       <c r="D156">
         <v>2016</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E156" s="2">
+        <v>5867</v>
+      </c>
+      <c r="F156" s="2">
+        <v>251</v>
+      </c>
+      <c r="G156" s="2">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>283651</v>
       </c>
@@ -2666,8 +4079,17 @@
       <c r="D157">
         <v>2016</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E157" s="2">
+        <v>5360</v>
+      </c>
+      <c r="F157" s="2">
+        <v>245</v>
+      </c>
+      <c r="G157" s="2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>293854</v>
       </c>
@@ -2680,8 +4102,17 @@
       <c r="D158">
         <v>2016</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E158" s="2">
+        <v>6037</v>
+      </c>
+      <c r="F158" s="2">
+        <v>235</v>
+      </c>
+      <c r="G158" s="2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>313619</v>
       </c>
@@ -2694,8 +4125,17 @@
       <c r="D159">
         <v>2017</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E159" s="2">
+        <v>6285</v>
+      </c>
+      <c r="F159" s="2">
+        <v>288</v>
+      </c>
+      <c r="G159" s="2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>303009</v>
       </c>
@@ -2708,8 +4148,17 @@
       <c r="D160">
         <v>2017</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E160" s="2">
+        <v>5994</v>
+      </c>
+      <c r="F160" s="2">
+        <v>231</v>
+      </c>
+      <c r="G160" s="2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>300891</v>
       </c>
@@ -2722,8 +4171,17 @@
       <c r="D161">
         <v>2017</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E161" s="2">
+        <v>5718</v>
+      </c>
+      <c r="F161" s="2">
+        <v>246</v>
+      </c>
+      <c r="G161" s="2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>302615</v>
       </c>
@@ -2736,8 +4194,17 @@
       <c r="D162">
         <v>2017</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E162" s="2">
+        <v>5689</v>
+      </c>
+      <c r="F162" s="2">
+        <v>241</v>
+      </c>
+      <c r="G162" s="2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>292980</v>
       </c>
@@ -2750,8 +4217,17 @@
       <c r="D163">
         <v>2017</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E163" s="2">
+        <v>5466</v>
+      </c>
+      <c r="F163" s="2">
+        <v>227</v>
+      </c>
+      <c r="G163" s="2">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>287052</v>
       </c>
@@ -2764,8 +4240,17 @@
       <c r="D164">
         <v>2017</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E164" s="2">
+        <v>5722</v>
+      </c>
+      <c r="F164" s="2">
+        <v>238</v>
+      </c>
+      <c r="G164" s="2">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>287434</v>
       </c>
@@ -2778,8 +4263,17 @@
       <c r="D165">
         <v>2017</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E165" s="2">
+        <v>5692</v>
+      </c>
+      <c r="F165" s="2">
+        <v>263</v>
+      </c>
+      <c r="G165" s="2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>295604</v>
       </c>
@@ -2792,8 +4286,17 @@
       <c r="D166">
         <v>2017</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E166" s="2">
+        <v>5719</v>
+      </c>
+      <c r="F166" s="2">
+        <v>281</v>
+      </c>
+      <c r="G166" s="2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>286044</v>
       </c>
@@ -2806,8 +4309,17 @@
       <c r="D167">
         <v>2017</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E167" s="2">
+        <v>5970</v>
+      </c>
+      <c r="F167" s="2">
+        <v>204</v>
+      </c>
+      <c r="G167" s="2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>293887</v>
       </c>
@@ -2820,8 +4332,17 @@
       <c r="D168">
         <v>2017</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E168" s="2">
+        <v>5763</v>
+      </c>
+      <c r="F168" s="2">
+        <v>213</v>
+      </c>
+      <c r="G168" s="2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>348581</v>
       </c>
@@ -2834,8 +4355,17 @@
       <c r="D169">
         <v>2017</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E169" s="2">
+        <v>5946</v>
+      </c>
+      <c r="F169" s="2">
+        <v>244</v>
+      </c>
+      <c r="G169" s="2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>362855</v>
       </c>
@@ -2848,8 +4378,17 @@
       <c r="D170">
         <v>2017</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E170" s="2">
+        <v>6328</v>
+      </c>
+      <c r="F170" s="2">
+        <v>226</v>
+      </c>
+      <c r="G170" s="2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>349967</v>
       </c>
@@ -2862,8 +4401,17 @@
       <c r="D171">
         <v>2017</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E171" s="2">
+        <v>6097</v>
+      </c>
+      <c r="F171" s="2">
+        <v>237</v>
+      </c>
+      <c r="G171" s="2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>346914</v>
       </c>
@@ -2876,8 +4424,17 @@
       <c r="D172">
         <v>2017</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E172" s="2">
+        <v>5997</v>
+      </c>
+      <c r="F172" s="2">
+        <v>220</v>
+      </c>
+      <c r="G172" s="2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>348738</v>
       </c>
@@ -2890,8 +4447,17 @@
       <c r="D173">
         <v>2017</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E173" s="2">
+        <v>6397</v>
+      </c>
+      <c r="F173" s="2">
+        <v>281</v>
+      </c>
+      <c r="G173" s="2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>347952</v>
       </c>
@@ -2904,8 +4470,17 @@
       <c r="D174">
         <v>2017</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E174" s="2">
+        <v>6129</v>
+      </c>
+      <c r="F174" s="2">
+        <v>229</v>
+      </c>
+      <c r="G174" s="2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>334182</v>
       </c>
@@ -2918,8 +4493,17 @@
       <c r="D175">
         <v>2017</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E175" s="2">
+        <v>6143</v>
+      </c>
+      <c r="F175" s="2">
+        <v>238</v>
+      </c>
+      <c r="G175" s="2">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>344496</v>
       </c>
@@ -2932,8 +4516,17 @@
       <c r="D176">
         <v>2017</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E176" s="2">
+        <v>6236</v>
+      </c>
+      <c r="F176" s="2">
+        <v>249</v>
+      </c>
+      <c r="G176" s="2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>335698</v>
       </c>
@@ -2946,8 +4539,17 @@
       <c r="D177">
         <v>2017</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E177" s="2">
+        <v>6175</v>
+      </c>
+      <c r="F177" s="2">
+        <v>259</v>
+      </c>
+      <c r="G177" s="2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>346039</v>
       </c>
@@ -2960,8 +4562,17 @@
       <c r="D178">
         <v>2017</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E178" s="2">
+        <v>6076</v>
+      </c>
+      <c r="F178" s="2">
+        <v>276</v>
+      </c>
+      <c r="G178" s="2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>374895</v>
       </c>
@@ -2974,8 +4585,17 @@
       <c r="D179">
         <v>2017</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E179" s="2">
+        <v>6157</v>
+      </c>
+      <c r="F179" s="2">
+        <v>277</v>
+      </c>
+      <c r="G179" s="2">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>382475</v>
       </c>
@@ -2988,8 +4608,17 @@
       <c r="D180">
         <v>2017</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E180" s="2">
+        <v>6018</v>
+      </c>
+      <c r="F180" s="2">
+        <v>270</v>
+      </c>
+      <c r="G180" s="2">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>392304</v>
       </c>
@@ -3002,8 +4631,17 @@
       <c r="D181">
         <v>2017</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E181" s="2">
+        <v>5905</v>
+      </c>
+      <c r="F181" s="2">
+        <v>245</v>
+      </c>
+      <c r="G181" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>375440</v>
       </c>
@@ -3016,8 +4654,17 @@
       <c r="D182">
         <v>2017</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E182" s="2">
+        <v>5663</v>
+      </c>
+      <c r="F182" s="2">
+        <v>292</v>
+      </c>
+      <c r="G182" s="2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>372038</v>
       </c>
@@ -3030,8 +4677,17 @@
       <c r="D183">
         <v>2017</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E183" s="2">
+        <v>6235</v>
+      </c>
+      <c r="F183" s="2">
+        <v>308</v>
+      </c>
+      <c r="G183" s="2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>371948</v>
       </c>
@@ -3044,8 +4700,17 @@
       <c r="D184">
         <v>2017</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E184" s="2">
+        <v>6315</v>
+      </c>
+      <c r="F184" s="2">
+        <v>307</v>
+      </c>
+      <c r="G184" s="2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>328070</v>
       </c>
@@ -3058,8 +4723,17 @@
       <c r="D185">
         <v>2017</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E185" s="2">
+        <v>6245</v>
+      </c>
+      <c r="F185" s="2">
+        <v>265</v>
+      </c>
+      <c r="G185" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>301657</v>
       </c>
@@ -3072,8 +4746,17 @@
       <c r="D186">
         <v>2017</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E186" s="2">
+        <v>6564</v>
+      </c>
+      <c r="F186" s="2">
+        <v>339</v>
+      </c>
+      <c r="G186" s="2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>290319</v>
       </c>
@@ -3086,8 +4769,17 @@
       <c r="D187">
         <v>2017</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E187" s="2">
+        <v>6478</v>
+      </c>
+      <c r="F187" s="2">
+        <v>300</v>
+      </c>
+      <c r="G187" s="2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>297914</v>
       </c>
@@ -3100,8 +4792,17 @@
       <c r="D188">
         <v>2017</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E188" s="2">
+        <v>6707</v>
+      </c>
+      <c r="F188" s="2">
+        <v>328</v>
+      </c>
+      <c r="G188" s="2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>305870</v>
       </c>
@@ -3114,8 +4815,17 @@
       <c r="D189">
         <v>2017</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E189" s="2">
+        <v>6534</v>
+      </c>
+      <c r="F189" s="2">
+        <v>270</v>
+      </c>
+      <c r="G189" s="2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>322097</v>
       </c>
@@ -3128,8 +4838,17 @@
       <c r="D190">
         <v>2017</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E190" s="2">
+        <v>6759</v>
+      </c>
+      <c r="F190" s="2">
+        <v>278</v>
+      </c>
+      <c r="G190" s="2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>344052</v>
       </c>
@@ -3142,8 +4861,17 @@
       <c r="D191">
         <v>2017</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E191" s="2">
+        <v>6463</v>
+      </c>
+      <c r="F191" s="2">
+        <v>253</v>
+      </c>
+      <c r="G191" s="2">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>345382</v>
       </c>
@@ -3156,8 +4884,17 @@
       <c r="D192">
         <v>2017</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E192" s="2">
+        <v>6594</v>
+      </c>
+      <c r="F192" s="2">
+        <v>275</v>
+      </c>
+      <c r="G192" s="2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>336322</v>
       </c>
@@ -3170,8 +4907,17 @@
       <c r="D193">
         <v>2017</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E193" s="2">
+        <v>6606</v>
+      </c>
+      <c r="F193" s="2">
+        <v>253</v>
+      </c>
+      <c r="G193" s="2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>342811</v>
       </c>
@@ -3184,8 +4930,17 @@
       <c r="D194">
         <v>2017</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E194" s="2">
+        <v>6640</v>
+      </c>
+      <c r="F194" s="2">
+        <v>294</v>
+      </c>
+      <c r="G194" s="2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>329490</v>
       </c>
@@ -3198,8 +4953,17 @@
       <c r="D195">
         <v>2017</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E195" s="2">
+        <v>6261</v>
+      </c>
+      <c r="F195" s="2">
+        <v>269</v>
+      </c>
+      <c r="G195" s="2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>356218</v>
       </c>
@@ -3212,8 +4976,17 @@
       <c r="D196">
         <v>2017</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E196" s="2">
+        <v>6781</v>
+      </c>
+      <c r="F196" s="2">
+        <v>330</v>
+      </c>
+      <c r="G196" s="2">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>349486</v>
       </c>
@@ -3226,8 +4999,17 @@
       <c r="D197">
         <v>2017</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E197" s="2">
+        <v>6974</v>
+      </c>
+      <c r="F197" s="2">
+        <v>271</v>
+      </c>
+      <c r="G197" s="2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>327833</v>
       </c>
@@ -3240,8 +5022,17 @@
       <c r="D198">
         <v>2017</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E198" s="2">
+        <v>6437</v>
+      </c>
+      <c r="F198" s="2">
+        <v>331</v>
+      </c>
+      <c r="G198" s="2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>343004</v>
       </c>
@@ -3254,8 +5045,17 @@
       <c r="D199">
         <v>2017</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E199" s="2">
+        <v>6440</v>
+      </c>
+      <c r="F199" s="2">
+        <v>271</v>
+      </c>
+      <c r="G199" s="2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>343639</v>
       </c>
@@ -3268,8 +5068,17 @@
       <c r="D200">
         <v>2017</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E200" s="2">
+        <v>6656</v>
+      </c>
+      <c r="F200" s="2">
+        <v>278</v>
+      </c>
+      <c r="G200" s="2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>351684</v>
       </c>
@@ -3282,8 +5091,17 @@
       <c r="D201">
         <v>2017</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E201" s="2">
+        <v>6504</v>
+      </c>
+      <c r="F201" s="2">
+        <v>251</v>
+      </c>
+      <c r="G201" s="2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>334627</v>
       </c>
@@ -3296,8 +5114,17 @@
       <c r="D202">
         <v>2017</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E202" s="2">
+        <v>6271</v>
+      </c>
+      <c r="F202" s="2">
+        <v>253</v>
+      </c>
+      <c r="G202" s="2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>343344</v>
       </c>
@@ -3310,8 +5137,17 @@
       <c r="D203">
         <v>2017</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E203" s="2">
+        <v>6551</v>
+      </c>
+      <c r="F203" s="2">
+        <v>291</v>
+      </c>
+      <c r="G203" s="2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>344937</v>
       </c>
@@ -3324,8 +5160,17 @@
       <c r="D204">
         <v>2017</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E204" s="2">
+        <v>6192</v>
+      </c>
+      <c r="F204" s="2">
+        <v>275</v>
+      </c>
+      <c r="G204" s="2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>340030</v>
       </c>
@@ -3338,8 +5183,17 @@
       <c r="D205">
         <v>2017</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E205" s="2">
+        <v>6118</v>
+      </c>
+      <c r="F205" s="2">
+        <v>231</v>
+      </c>
+      <c r="G205" s="2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>333251</v>
       </c>
@@ -3352,8 +5206,17 @@
       <c r="D206">
         <v>2017</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E206" s="2">
+        <v>6175</v>
+      </c>
+      <c r="F206" s="2">
+        <v>266</v>
+      </c>
+      <c r="G206" s="2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>322350</v>
       </c>
@@ -3366,8 +5229,17 @@
       <c r="D207">
         <v>2017</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E207" s="2">
+        <v>6079</v>
+      </c>
+      <c r="F207" s="2">
+        <v>234</v>
+      </c>
+      <c r="G207" s="2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>314855</v>
       </c>
@@ -3380,8 +5252,17 @@
       <c r="D208">
         <v>2017</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E208" s="2">
+        <v>6063</v>
+      </c>
+      <c r="F208" s="2">
+        <v>255</v>
+      </c>
+      <c r="G208" s="2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>304098</v>
       </c>
@@ -3394,8 +5275,17 @@
       <c r="D209">
         <v>2017</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E209" s="2">
+        <v>5869</v>
+      </c>
+      <c r="F209" s="2">
+        <v>229</v>
+      </c>
+      <c r="G209" s="2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>317201</v>
       </c>
@@ -3408,8 +5298,17 @@
       <c r="D210">
         <v>2017</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E210" s="2">
+        <v>5639</v>
+      </c>
+      <c r="F210" s="2">
+        <v>224</v>
+      </c>
+      <c r="G210" s="2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>313647</v>
       </c>
@@ -3422,8 +5321,17 @@
       <c r="D211">
         <v>2018</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E211" s="2">
+        <v>6160</v>
+      </c>
+      <c r="F211" s="2">
+        <v>273</v>
+      </c>
+      <c r="G211" s="2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>306767</v>
       </c>
@@ -3436,8 +5344,17 @@
       <c r="D212">
         <v>2018</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E212" s="2">
+        <v>6110</v>
+      </c>
+      <c r="F212" s="2">
+        <v>204</v>
+      </c>
+      <c r="G212" s="2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>302406</v>
       </c>
@@ -3450,8 +5367,17 @@
       <c r="D213">
         <v>2018</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E213" s="2">
+        <v>6348</v>
+      </c>
+      <c r="F213" s="2">
+        <v>226</v>
+      </c>
+      <c r="G213" s="2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>295016</v>
       </c>
@@ -3464,8 +5390,17 @@
       <c r="D214">
         <v>2018</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E214" s="2">
+        <v>6160</v>
+      </c>
+      <c r="F214" s="2">
+        <v>256</v>
+      </c>
+      <c r="G214" s="2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>286927</v>
       </c>
@@ -3478,8 +5413,17 @@
       <c r="D215">
         <v>2018</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E215" s="2">
+        <v>6229</v>
+      </c>
+      <c r="F215" s="2">
+        <v>261</v>
+      </c>
+      <c r="G215" s="2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>287296</v>
       </c>
@@ -3492,8 +5436,17 @@
       <c r="D216">
         <v>2018</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E216" s="2">
+        <v>6004</v>
+      </c>
+      <c r="F216" s="2">
+        <v>247</v>
+      </c>
+      <c r="G216" s="2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>290139</v>
       </c>
@@ -3506,8 +5459,17 @@
       <c r="D217">
         <v>2018</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E217" s="2">
+        <v>5940</v>
+      </c>
+      <c r="F217" s="2">
+        <v>265</v>
+      </c>
+      <c r="G217" s="2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>298719</v>
       </c>
@@ -3520,8 +5482,17 @@
       <c r="D218">
         <v>2018</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E218" s="2">
+        <v>6056</v>
+      </c>
+      <c r="F218" s="2">
+        <v>283</v>
+      </c>
+      <c r="G218" s="2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>293500</v>
       </c>
@@ -3534,8 +5505,17 @@
       <c r="D219">
         <v>2018</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E219" s="2">
+        <v>5972</v>
+      </c>
+      <c r="F219" s="2">
+        <v>259</v>
+      </c>
+      <c r="G219" s="2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>307336</v>
       </c>
@@ -3548,8 +5528,17 @@
       <c r="D220">
         <v>2018</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E220" s="2">
+        <v>6243</v>
+      </c>
+      <c r="F220" s="2">
+        <v>255</v>
+      </c>
+      <c r="G220" s="2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>359109</v>
       </c>
@@ -3562,8 +5551,17 @@
       <c r="D221">
         <v>2018</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E221" s="2">
+        <v>6361</v>
+      </c>
+      <c r="F221" s="2">
+        <v>260</v>
+      </c>
+      <c r="G221" s="2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>379423</v>
       </c>
@@ -3576,8 +5574,17 @@
       <c r="D222">
         <v>2018</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E222" s="2">
+        <v>6324</v>
+      </c>
+      <c r="F222" s="2">
+        <v>251</v>
+      </c>
+      <c r="G222" s="2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>359248</v>
       </c>
@@ -3590,8 +5597,17 @@
       <c r="D223">
         <v>2018</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E223" s="2">
+        <v>6218</v>
+      </c>
+      <c r="F223" s="2">
+        <v>260</v>
+      </c>
+      <c r="G223" s="2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>354352</v>
       </c>
@@ -3604,8 +5620,17 @@
       <c r="D224">
         <v>2018</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E224" s="2">
+        <v>6210</v>
+      </c>
+      <c r="F224" s="2">
+        <v>252</v>
+      </c>
+      <c r="G224" s="2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>343747</v>
       </c>
@@ -3618,8 +5643,17 @@
       <c r="D225">
         <v>2018</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E225" s="2">
+        <v>6372</v>
+      </c>
+      <c r="F225" s="2">
+        <v>236</v>
+      </c>
+      <c r="G225" s="2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>349780</v>
       </c>
@@ -3632,8 +5666,17 @@
       <c r="D226">
         <v>2018</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E226" s="2">
+        <v>6462</v>
+      </c>
+      <c r="F226" s="2">
+        <v>276</v>
+      </c>
+      <c r="G226" s="2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>341671</v>
       </c>
@@ -3646,8 +5689,17 @@
       <c r="D227">
         <v>2018</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E227" s="2">
+        <v>6450</v>
+      </c>
+      <c r="F227" s="2">
+        <v>240</v>
+      </c>
+      <c r="G227" s="2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>335732</v>
       </c>
@@ -3660,8 +5712,17 @@
       <c r="D228">
         <v>2018</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E228" s="2">
+        <v>6374</v>
+      </c>
+      <c r="F228" s="2">
+        <v>276</v>
+      </c>
+      <c r="G228" s="2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>338055</v>
       </c>
@@ -3674,8 +5735,17 @@
       <c r="D229">
         <v>2018</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E229" s="2">
+        <v>6623</v>
+      </c>
+      <c r="F229" s="2">
+        <v>329</v>
+      </c>
+      <c r="G229" s="2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>337913</v>
       </c>
@@ -3688,8 +5758,17 @@
       <c r="D230">
         <v>2018</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E230" s="2">
+        <v>6415</v>
+      </c>
+      <c r="F230" s="2">
+        <v>304</v>
+      </c>
+      <c r="G230" s="2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>356038</v>
       </c>
@@ -3702,8 +5781,17 @@
       <c r="D231">
         <v>2018</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E231" s="2">
+        <v>6329</v>
+      </c>
+      <c r="F231" s="2">
+        <v>296</v>
+      </c>
+      <c r="G231" s="2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>325120</v>
       </c>
@@ -3716,8 +5804,17 @@
       <c r="D232">
         <v>2018</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E232" s="2">
+        <v>6162</v>
+      </c>
+      <c r="F232" s="2">
+        <v>306</v>
+      </c>
+      <c r="G232" s="2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>334752</v>
       </c>
@@ -3730,8 +5827,17 @@
       <c r="D233">
         <v>2018</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E233" s="2">
+        <v>6384</v>
+      </c>
+      <c r="F233" s="2">
+        <v>333</v>
+      </c>
+      <c r="G233" s="2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>333017</v>
       </c>
@@ -3744,8 +5850,17 @@
       <c r="D234">
         <v>2018</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E234" s="2">
+        <v>6392</v>
+      </c>
+      <c r="F234" s="2">
+        <v>320</v>
+      </c>
+      <c r="G234" s="2">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>360062</v>
       </c>
@@ -3758,8 +5873,17 @@
       <c r="D235">
         <v>2018</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E235" s="2">
+        <v>6493</v>
+      </c>
+      <c r="F235" s="2">
+        <v>340</v>
+      </c>
+      <c r="G235" s="2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>363118</v>
       </c>
@@ -3772,8 +5896,17 @@
       <c r="D236">
         <v>2018</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E236" s="2">
+        <v>6581</v>
+      </c>
+      <c r="F236" s="2">
+        <v>324</v>
+      </c>
+      <c r="G236" s="2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>349790</v>
       </c>
@@ -3786,8 +5919,17 @@
       <c r="D237">
         <v>2018</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E237" s="2">
+        <v>6450</v>
+      </c>
+      <c r="F237" s="2">
+        <v>302</v>
+      </c>
+      <c r="G237" s="2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>341542</v>
       </c>
@@ -3800,8 +5942,17 @@
       <c r="D238">
         <v>2018</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E238" s="2">
+        <v>6872</v>
+      </c>
+      <c r="F238" s="2">
+        <v>319</v>
+      </c>
+      <c r="G238" s="2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>329166</v>
       </c>
@@ -3814,8 +5965,17 @@
       <c r="D239">
         <v>2018</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E239" s="2">
+        <v>6509</v>
+      </c>
+      <c r="F239" s="2">
+        <v>335</v>
+      </c>
+      <c r="G239" s="2">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>308989</v>
       </c>
@@ -3828,8 +5988,17 @@
       <c r="D240">
         <v>2018</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E240" s="2">
+        <v>6677</v>
+      </c>
+      <c r="F240" s="2">
+        <v>343</v>
+      </c>
+      <c r="G240" s="2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>316758</v>
       </c>
@@ -3842,8 +6011,17 @@
       <c r="D241">
         <v>2018</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E241" s="2">
+        <v>6734</v>
+      </c>
+      <c r="F241" s="2">
+        <v>338</v>
+      </c>
+      <c r="G241" s="2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>346767</v>
       </c>
@@ -3856,8 +6034,17 @@
       <c r="D242">
         <v>2018</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E242" s="2">
+        <v>6926</v>
+      </c>
+      <c r="F242" s="2">
+        <v>318</v>
+      </c>
+      <c r="G242" s="2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>383338</v>
       </c>
@@ -3870,8 +6057,17 @@
       <c r="D243">
         <v>2018</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E243" s="2">
+        <v>7090</v>
+      </c>
+      <c r="F243" s="2">
+        <v>331</v>
+      </c>
+      <c r="G243" s="2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>365418</v>
       </c>
@@ -3884,8 +6080,17 @@
       <c r="D244">
         <v>2018</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E244" s="2">
+        <v>6896</v>
+      </c>
+      <c r="F244" s="2">
+        <v>344</v>
+      </c>
+      <c r="G244" s="2">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>363767</v>
       </c>
@@ -3898,8 +6103,17 @@
       <c r="D245">
         <v>2018</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E245" s="2">
+        <v>6903</v>
+      </c>
+      <c r="F245" s="2">
+        <v>349</v>
+      </c>
+      <c r="G245" s="2">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>364045</v>
       </c>
@@ -3912,8 +6126,17 @@
       <c r="D246">
         <v>2018</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E246" s="2">
+        <v>6655</v>
+      </c>
+      <c r="F246" s="2">
+        <v>321</v>
+      </c>
+      <c r="G246" s="2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>348485</v>
       </c>
@@ -3926,8 +6149,17 @@
       <c r="D247">
         <v>2018</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E247" s="2">
+        <v>6362</v>
+      </c>
+      <c r="F247" s="2">
+        <v>290</v>
+      </c>
+      <c r="G247" s="2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>344861</v>
       </c>
@@ -3940,8 +6172,17 @@
       <c r="D248">
         <v>2018</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E248" s="2">
+        <v>6564</v>
+      </c>
+      <c r="F248" s="2">
+        <v>312</v>
+      </c>
+      <c r="G248" s="2">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>349837</v>
       </c>
@@ -3954,8 +6195,17 @@
       <c r="D249">
         <v>2018</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E249" s="2">
+        <v>7327</v>
+      </c>
+      <c r="F249" s="2">
+        <v>267</v>
+      </c>
+      <c r="G249" s="2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>337834</v>
       </c>
@@ -3968,8 +6218,17 @@
       <c r="D250">
         <v>2018</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E250" s="2">
+        <v>7198</v>
+      </c>
+      <c r="F250" s="2">
+        <v>293</v>
+      </c>
+      <c r="G250" s="2">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>341840</v>
       </c>
@@ -3982,8 +6241,17 @@
       <c r="D251">
         <v>2018</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E251" s="2">
+        <v>6757</v>
+      </c>
+      <c r="F251" s="2">
+        <v>282</v>
+      </c>
+      <c r="G251" s="2">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>347473</v>
       </c>
@@ -3996,8 +6264,17 @@
       <c r="D252">
         <v>2018</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E252" s="2">
+        <v>6812</v>
+      </c>
+      <c r="F252" s="2">
+        <v>281</v>
+      </c>
+      <c r="G252" s="2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>352608</v>
       </c>
@@ -4010,8 +6287,17 @@
       <c r="D253">
         <v>2018</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E253" s="2">
+        <v>7076</v>
+      </c>
+      <c r="F253" s="2">
+        <v>287</v>
+      </c>
+      <c r="G253" s="2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>336606</v>
       </c>
@@ -4024,8 +6310,17 @@
       <c r="D254">
         <v>2018</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E254" s="2">
+        <v>6683</v>
+      </c>
+      <c r="F254" s="2">
+        <v>278</v>
+      </c>
+      <c r="G254" s="2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>343690</v>
       </c>
@@ -4038,8 +6333,17 @@
       <c r="D255">
         <v>2018</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E255" s="2">
+        <v>6731</v>
+      </c>
+      <c r="F255" s="2">
+        <v>301</v>
+      </c>
+      <c r="G255" s="2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>341125</v>
       </c>
@@ -4052,8 +6356,17 @@
       <c r="D256">
         <v>2018</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E256" s="2">
+        <v>6747</v>
+      </c>
+      <c r="F256" s="2">
+        <v>296</v>
+      </c>
+      <c r="G256" s="2">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>349559</v>
       </c>
@@ -4066,8 +6379,17 @@
       <c r="D257">
         <v>2018</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E257" s="2">
+        <v>6542</v>
+      </c>
+      <c r="F257" s="2">
+        <v>304</v>
+      </c>
+      <c r="G257" s="2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>338878</v>
       </c>
@@ -4080,8 +6402,17 @@
       <c r="D258">
         <v>2018</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E258" s="2">
+        <v>6257</v>
+      </c>
+      <c r="F258" s="2">
+        <v>237</v>
+      </c>
+      <c r="G258" s="2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>327373</v>
       </c>
@@ -4094,8 +6425,17 @@
       <c r="D259">
         <v>2018</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E259" s="2">
+        <v>6339</v>
+      </c>
+      <c r="F259" s="2">
+        <v>276</v>
+      </c>
+      <c r="G259" s="2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>318723</v>
       </c>
@@ -4108,8 +6448,17 @@
       <c r="D260">
         <v>2018</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E260" s="2">
+        <v>6061</v>
+      </c>
+      <c r="F260" s="2">
+        <v>263</v>
+      </c>
+      <c r="G260" s="2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>307398</v>
       </c>
@@ -4122,8 +6471,17 @@
       <c r="D261">
         <v>2018</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E261" s="2">
+        <v>6048</v>
+      </c>
+      <c r="F261" s="2">
+        <v>317</v>
+      </c>
+      <c r="G261" s="2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>315023</v>
       </c>
@@ -4136,8 +6494,17 @@
       <c r="D262">
         <v>2018</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E262" s="2">
+        <v>7115</v>
+      </c>
+      <c r="F262" s="2">
+        <v>286</v>
+      </c>
+      <c r="G262" s="2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>315374</v>
       </c>
@@ -4150,8 +6517,17 @@
       <c r="D263">
         <v>2019</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E263" s="2">
+        <v>6184</v>
+      </c>
+      <c r="F263" s="2">
+        <v>309</v>
+      </c>
+      <c r="G263" s="2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>302808</v>
       </c>
@@ -4164,8 +6540,17 @@
       <c r="D264">
         <v>2019</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E264" s="2">
+        <v>6703</v>
+      </c>
+      <c r="F264" s="2">
+        <v>291</v>
+      </c>
+      <c r="G264" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>292584</v>
       </c>
@@ -4178,8 +6563,17 @@
       <c r="D265">
         <v>2019</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E265" s="2">
+        <v>6430</v>
+      </c>
+      <c r="F265" s="2">
+        <v>318</v>
+      </c>
+      <c r="G265" s="2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>296981</v>
       </c>
@@ -4192,8 +6586,17 @@
       <c r="D266">
         <v>2019</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E266" s="2">
+        <v>6493</v>
+      </c>
+      <c r="F266" s="2">
+        <v>315</v>
+      </c>
+      <c r="G266" s="2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>294953</v>
       </c>
@@ -4206,8 +6609,17 @@
       <c r="D267">
         <v>2019</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E267" s="2">
+        <v>6398</v>
+      </c>
+      <c r="F267" s="2">
+        <v>272</v>
+      </c>
+      <c r="G267" s="2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>295301</v>
       </c>
@@ -4220,8 +6632,17 @@
       <c r="D268">
         <v>2019</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E268" s="2">
+        <v>6357</v>
+      </c>
+      <c r="F268" s="2">
+        <v>312</v>
+      </c>
+      <c r="G268" s="2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>292917</v>
       </c>
@@ -4234,8 +6655,17 @@
       <c r="D269">
         <v>2019</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E269" s="2">
+        <v>6518</v>
+      </c>
+      <c r="F269" s="2">
+        <v>277</v>
+      </c>
+      <c r="G269" s="2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>295260</v>
       </c>
@@ -4248,8 +6678,17 @@
       <c r="D270">
         <v>2019</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E270" s="2">
+        <v>6861</v>
+      </c>
+      <c r="F270" s="2">
+        <v>339</v>
+      </c>
+      <c r="G270" s="2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>286340</v>
       </c>
@@ -4262,8 +6701,17 @@
       <c r="D271">
         <v>2019</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E271" s="2">
+        <v>6563</v>
+      </c>
+      <c r="F271" s="2">
+        <v>298</v>
+      </c>
+      <c r="G271" s="2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>298194</v>
       </c>
@@ -4276,8 +6724,17 @@
       <c r="D272">
         <v>2019</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E272" s="2">
+        <v>6620</v>
+      </c>
+      <c r="F272" s="2">
+        <v>284</v>
+      </c>
+      <c r="G272" s="2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>353022</v>
       </c>
@@ -4290,8 +6747,17 @@
       <c r="D273">
         <v>2019</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E273" s="2">
+        <v>6706</v>
+      </c>
+      <c r="F273" s="2">
+        <v>329</v>
+      </c>
+      <c r="G273" s="2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>382432</v>
       </c>
@@ -4304,8 +6770,17 @@
       <c r="D274">
         <v>2019</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E274" s="2">
+        <v>6755</v>
+      </c>
+      <c r="F274" s="2">
+        <v>332</v>
+      </c>
+      <c r="G274" s="2">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>373244</v>
       </c>
@@ -4318,8 +6793,17 @@
       <c r="D275">
         <v>2019</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E275" s="2">
+        <v>7003</v>
+      </c>
+      <c r="F275" s="2">
+        <v>290</v>
+      </c>
+      <c r="G275" s="2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>367624</v>
       </c>
@@ -4332,8 +6816,17 @@
       <c r="D276">
         <v>2019</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E276" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F276" s="2">
+        <v>273</v>
+      </c>
+      <c r="G276" s="2">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>358770</v>
       </c>
@@ -4346,8 +6839,17 @@
       <c r="D277">
         <v>2019</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E277" s="2">
+        <v>6708</v>
+      </c>
+      <c r="F277" s="2">
+        <v>299</v>
+      </c>
+      <c r="G277" s="2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>358860</v>
       </c>
@@ -4360,8 +6862,17 @@
       <c r="D278">
         <v>2019</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E278" s="2">
+        <v>6688</v>
+      </c>
+      <c r="F278" s="2">
+        <v>302</v>
+      </c>
+      <c r="G278" s="2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>368847</v>
       </c>
@@ -4374,8 +6885,17 @@
       <c r="D279">
         <v>2019</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E279" s="2">
+        <v>7281</v>
+      </c>
+      <c r="F279" s="2">
+        <v>288</v>
+      </c>
+      <c r="G279" s="2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>374404</v>
       </c>
@@ -4388,8 +6908,17 @@
       <c r="D280">
         <v>2019</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E280" s="2">
+        <v>7091</v>
+      </c>
+      <c r="F280" s="2">
+        <v>327</v>
+      </c>
+      <c r="G280" s="2">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>368404</v>
       </c>
@@ -4402,8 +6931,17 @@
       <c r="D281">
         <v>2019</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E281" s="2">
+        <v>6804</v>
+      </c>
+      <c r="F281" s="2">
+        <v>337</v>
+      </c>
+      <c r="G281" s="2">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>394764</v>
       </c>
@@ -4416,8 +6954,17 @@
       <c r="D282">
         <v>2019</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E282" s="2">
+        <v>6725</v>
+      </c>
+      <c r="F282" s="2">
+        <v>320</v>
+      </c>
+      <c r="G282" s="2">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>401636</v>
       </c>
@@ -4430,8 +6977,17 @@
       <c r="D283">
         <v>2019</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E283" s="2">
+        <v>7145</v>
+      </c>
+      <c r="F283" s="2">
+        <v>361</v>
+      </c>
+      <c r="G283" s="2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>386823</v>
       </c>
@@ -4444,8 +7000,17 @@
       <c r="D284">
         <v>2019</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E284" s="2">
+        <v>6992</v>
+      </c>
+      <c r="F284" s="2">
+        <v>375</v>
+      </c>
+      <c r="G284" s="2">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>395618</v>
       </c>
@@ -4458,8 +7023,17 @@
       <c r="D285">
         <v>2019</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E285" s="2">
+        <v>6992</v>
+      </c>
+      <c r="F285" s="2">
+        <v>349</v>
+      </c>
+      <c r="G285" s="2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>386356</v>
       </c>
@@ -4472,8 +7046,17 @@
       <c r="D286">
         <v>2019</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E286" s="2">
+        <v>6637</v>
+      </c>
+      <c r="F286" s="2">
+        <v>328</v>
+      </c>
+      <c r="G286" s="2">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>381982</v>
       </c>
@@ -4486,8 +7069,17 @@
       <c r="D287">
         <v>2019</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E287" s="2">
+        <v>6921</v>
+      </c>
+      <c r="F287" s="2">
+        <v>347</v>
+      </c>
+      <c r="G287" s="2">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>350163</v>
       </c>
@@ -4500,8 +7092,17 @@
       <c r="D288">
         <v>2019</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E288" s="2">
+        <v>6497</v>
+      </c>
+      <c r="F288" s="2">
+        <v>308</v>
+      </c>
+      <c r="G288" s="2">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>354962</v>
       </c>
@@ -4514,8 +7115,17 @@
       <c r="D289">
         <v>2019</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E289" s="2">
+        <v>6814</v>
+      </c>
+      <c r="F289" s="2">
+        <v>363</v>
+      </c>
+      <c r="G289" s="2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>347504</v>
       </c>
@@ -4528,8 +7138,17 @@
       <c r="D290">
         <v>2019</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E290" s="2">
+        <v>7192</v>
+      </c>
+      <c r="F290" s="2">
+        <v>368</v>
+      </c>
+      <c r="G290" s="2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>336953</v>
       </c>
@@ -4542,8 +7161,17 @@
       <c r="D291">
         <v>2019</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E291" s="2">
+        <v>7357</v>
+      </c>
+      <c r="F291" s="2">
+        <v>370</v>
+      </c>
+      <c r="G291" s="2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>304090</v>
       </c>
@@ -4556,8 +7184,17 @@
       <c r="D292">
         <v>2019</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E292" s="2">
+        <v>7358</v>
+      </c>
+      <c r="F292" s="2">
+        <v>376</v>
+      </c>
+      <c r="G292" s="2">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>320147</v>
       </c>
@@ -4570,8 +7207,17 @@
       <c r="D293">
         <v>2019</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E293" s="2">
+        <v>7445</v>
+      </c>
+      <c r="F293" s="2">
+        <v>327</v>
+      </c>
+      <c r="G293" s="2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>339642</v>
       </c>
@@ -4584,8 +7230,17 @@
       <c r="D294">
         <v>2019</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E294" s="2">
+        <v>7518</v>
+      </c>
+      <c r="F294" s="2">
+        <v>346</v>
+      </c>
+      <c r="G294" s="2">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>375548</v>
       </c>
@@ -4598,8 +7253,17 @@
       <c r="D295">
         <v>2019</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E295" s="2">
+        <v>7444</v>
+      </c>
+      <c r="F295" s="2">
+        <v>379</v>
+      </c>
+      <c r="G295" s="2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>386985</v>
       </c>
@@ -4612,8 +7276,17 @@
       <c r="D296">
         <v>2019</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E296" s="2">
+        <v>7958</v>
+      </c>
+      <c r="F296" s="2">
+        <v>363</v>
+      </c>
+      <c r="G296" s="2">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>385570</v>
       </c>
@@ -4626,8 +7299,17 @@
       <c r="D297">
         <v>2019</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E297" s="2">
+        <v>7343</v>
+      </c>
+      <c r="F297" s="2">
+        <v>335</v>
+      </c>
+      <c r="G297" s="2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>382588</v>
       </c>
@@ -4640,8 +7322,17 @@
       <c r="D298">
         <v>2019</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E298" s="2">
+        <v>7085</v>
+      </c>
+      <c r="F298" s="2">
+        <v>317</v>
+      </c>
+      <c r="G298" s="2">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>372830</v>
       </c>
@@ -4654,8 +7345,17 @@
       <c r="D299">
         <v>2019</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E299" s="2">
+        <v>7025</v>
+      </c>
+      <c r="F299" s="2">
+        <v>349</v>
+      </c>
+      <c r="G299" s="2">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>368774</v>
       </c>
@@ -4668,8 +7368,17 @@
       <c r="D300">
         <v>2019</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E300" s="2">
+        <v>6962</v>
+      </c>
+      <c r="F300" s="2">
+        <v>361</v>
+      </c>
+      <c r="G300" s="2">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>391132</v>
       </c>
@@ -4682,8 +7391,17 @@
       <c r="D301">
         <v>2019</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E301" s="2">
+        <v>7948</v>
+      </c>
+      <c r="F301" s="2">
+        <v>364</v>
+      </c>
+      <c r="G301" s="2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>356546</v>
       </c>
@@ -4696,8 +7414,17 @@
       <c r="D302">
         <v>2019</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E302" s="2">
+        <v>7424</v>
+      </c>
+      <c r="F302" s="2">
+        <v>396</v>
+      </c>
+      <c r="G302" s="2">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>384838</v>
       </c>
@@ -4710,8 +7437,17 @@
       <c r="D303">
         <v>2019</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E303" s="2">
+        <v>7667</v>
+      </c>
+      <c r="F303" s="2">
+        <v>359</v>
+      </c>
+      <c r="G303" s="2">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>371005</v>
       </c>
@@ -4724,8 +7460,17 @@
       <c r="D304">
         <v>2019</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E304" s="2">
+        <v>7395</v>
+      </c>
+      <c r="F304" s="2">
+        <v>357</v>
+      </c>
+      <c r="G304" s="2">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>277559</v>
       </c>
@@ -4738,8 +7483,17 @@
       <c r="D305">
         <v>2019</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E305" s="2">
+        <v>5601</v>
+      </c>
+      <c r="F305" s="2">
+        <v>326</v>
+      </c>
+      <c r="G305" s="2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>301097</v>
       </c>
@@ -4752,8 +7506,17 @@
       <c r="D306">
         <v>2019</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E306" s="2">
+        <v>6778</v>
+      </c>
+      <c r="F306" s="2">
+        <v>320</v>
+      </c>
+      <c r="G306" s="2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>307936</v>
       </c>
@@ -4766,8 +7529,17 @@
       <c r="D307">
         <v>2019</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E307" s="2">
+        <v>6977</v>
+      </c>
+      <c r="F307" s="2">
+        <v>343</v>
+      </c>
+      <c r="G307" s="2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>295071</v>
       </c>
@@ -4780,8 +7552,17 @@
       <c r="D308">
         <v>2019</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E308" s="2">
+        <v>6624</v>
+      </c>
+      <c r="F308" s="2">
+        <v>317</v>
+      </c>
+      <c r="G308" s="2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>313566</v>
       </c>
@@ -4794,8 +7575,17 @@
       <c r="D309">
         <v>2019</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E309" s="2">
+        <v>6794</v>
+      </c>
+      <c r="F309" s="2">
+        <v>303</v>
+      </c>
+      <c r="G309" s="2">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>306192</v>
       </c>
@@ -4808,8 +7598,17 @@
       <c r="D310">
         <v>2019</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E310" s="2">
+        <v>6816</v>
+      </c>
+      <c r="F310" s="2">
+        <v>299</v>
+      </c>
+      <c r="G310" s="2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>315389</v>
       </c>
@@ -4822,8 +7621,17 @@
       <c r="D311">
         <v>2019</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E311" s="2">
+        <v>6633</v>
+      </c>
+      <c r="F311" s="2">
+        <v>304</v>
+      </c>
+      <c r="G311" s="2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>316238</v>
       </c>
@@ -4836,8 +7644,17 @@
       <c r="D312">
         <v>2019</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E312" s="2">
+        <v>7070</v>
+      </c>
+      <c r="F312" s="2">
+        <v>309</v>
+      </c>
+      <c r="G312" s="2">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>313607</v>
       </c>
@@ -4850,8 +7667,17 @@
       <c r="D313">
         <v>2019</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E313" s="2">
+        <v>6974</v>
+      </c>
+      <c r="F313" s="2">
+        <v>348</v>
+      </c>
+      <c r="G313" s="2">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>318178</v>
       </c>
@@ -4863,6 +7689,1234 @@
       </c>
       <c r="D314">
         <v>2019</v>
+      </c>
+      <c r="E314" s="2">
+        <v>6480</v>
+      </c>
+      <c r="F314" s="2">
+        <v>387</v>
+      </c>
+      <c r="G314" s="2">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="2">
+        <v>329763</v>
+      </c>
+      <c r="B315" s="2">
+        <v>53826</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315">
+        <v>2020</v>
+      </c>
+      <c r="E315" s="2">
+        <v>7332</v>
+      </c>
+      <c r="F315" s="2">
+        <v>343</v>
+      </c>
+      <c r="G315" s="2">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="2">
+        <v>321063</v>
+      </c>
+      <c r="B316" s="2">
+        <v>49329</v>
+      </c>
+      <c r="C316">
+        <v>2</v>
+      </c>
+      <c r="D316">
+        <v>2020</v>
+      </c>
+      <c r="E316" s="2">
+        <v>7482</v>
+      </c>
+      <c r="F316" s="2">
+        <v>362</v>
+      </c>
+      <c r="G316" s="2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="2">
+        <v>312373</v>
+      </c>
+      <c r="B317" s="2">
+        <v>43757</v>
+      </c>
+      <c r="C317">
+        <v>3</v>
+      </c>
+      <c r="D317">
+        <v>2020</v>
+      </c>
+      <c r="E317" s="2">
+        <v>7013</v>
+      </c>
+      <c r="F317" s="2">
+        <v>339</v>
+      </c>
+      <c r="G317" s="2">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="2">
+        <v>316221</v>
+      </c>
+      <c r="B318" s="2">
+        <v>40940</v>
+      </c>
+      <c r="C318">
+        <v>4</v>
+      </c>
+      <c r="D318">
+        <v>2020</v>
+      </c>
+      <c r="E318" s="2">
+        <v>7154</v>
+      </c>
+      <c r="F318" s="2">
+        <v>371</v>
+      </c>
+      <c r="G318" s="2">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="2">
+        <v>313825</v>
+      </c>
+      <c r="B319" s="2">
+        <v>40714</v>
+      </c>
+      <c r="C319">
+        <v>5</v>
+      </c>
+      <c r="D319">
+        <v>2020</v>
+      </c>
+      <c r="E319" s="2">
+        <v>7019</v>
+      </c>
+      <c r="F319" s="2">
+        <v>328</v>
+      </c>
+      <c r="G319" s="2">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="2">
+        <v>302401</v>
+      </c>
+      <c r="B320" s="2">
+        <v>40916</v>
+      </c>
+      <c r="C320">
+        <v>6</v>
+      </c>
+      <c r="D320">
+        <v>2020</v>
+      </c>
+      <c r="E320" s="2">
+        <v>6907</v>
+      </c>
+      <c r="F320" s="2">
+        <v>346</v>
+      </c>
+      <c r="G320" s="2">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="2">
+        <v>304458</v>
+      </c>
+      <c r="B321" s="2">
+        <v>41018</v>
+      </c>
+      <c r="C321">
+        <v>7</v>
+      </c>
+      <c r="D321">
+        <v>2020</v>
+      </c>
+      <c r="E321" s="2">
+        <v>7350</v>
+      </c>
+      <c r="F321" s="2">
+        <v>343</v>
+      </c>
+      <c r="G321" s="2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="2">
+        <v>312895</v>
+      </c>
+      <c r="B322" s="2">
+        <v>43091</v>
+      </c>
+      <c r="C322">
+        <v>8</v>
+      </c>
+      <c r="D322">
+        <v>2020</v>
+      </c>
+      <c r="E322" s="2">
+        <v>7011</v>
+      </c>
+      <c r="F322" s="2">
+        <v>334</v>
+      </c>
+      <c r="G322" s="2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="2">
+        <v>302236</v>
+      </c>
+      <c r="B323" s="2">
+        <v>45317</v>
+      </c>
+      <c r="C323">
+        <v>9</v>
+      </c>
+      <c r="D323">
+        <v>2020</v>
+      </c>
+      <c r="E323" s="2">
+        <v>7169</v>
+      </c>
+      <c r="F323" s="2">
+        <v>333</v>
+      </c>
+      <c r="G323" s="2">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="2">
+        <v>309626</v>
+      </c>
+      <c r="B324" s="2">
+        <v>51919</v>
+      </c>
+      <c r="C324">
+        <v>10</v>
+      </c>
+      <c r="D324">
+        <v>2020</v>
+      </c>
+      <c r="E324" s="2">
+        <v>6913</v>
+      </c>
+      <c r="F324" s="2">
+        <v>311</v>
+      </c>
+      <c r="G324" s="2">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="2">
+        <v>347965</v>
+      </c>
+      <c r="B325" s="2">
+        <v>80857</v>
+      </c>
+      <c r="C325">
+        <v>11</v>
+      </c>
+      <c r="D325">
+        <v>2020</v>
+      </c>
+      <c r="E325" s="2">
+        <v>6761</v>
+      </c>
+      <c r="F325" s="2">
+        <v>293</v>
+      </c>
+      <c r="G325" s="2">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="2">
+        <v>271518</v>
+      </c>
+      <c r="B326" s="2">
+        <v>103314</v>
+      </c>
+      <c r="C326">
+        <v>12</v>
+      </c>
+      <c r="D326">
+        <v>2020</v>
+      </c>
+      <c r="E326" s="2">
+        <v>4688</v>
+      </c>
+      <c r="F326" s="2">
+        <v>263</v>
+      </c>
+      <c r="G326" s="2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="2">
+        <v>171625</v>
+      </c>
+      <c r="B327" s="2">
+        <v>50400</v>
+      </c>
+      <c r="C327">
+        <v>13</v>
+      </c>
+      <c r="D327">
+        <v>2020</v>
+      </c>
+      <c r="E327" s="2">
+        <v>4403</v>
+      </c>
+      <c r="F327" s="2">
+        <v>223</v>
+      </c>
+      <c r="G327" s="2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="2">
+        <v>158096</v>
+      </c>
+      <c r="B328" s="2">
+        <v>32278</v>
+      </c>
+      <c r="C328">
+        <v>14</v>
+      </c>
+      <c r="D328">
+        <v>2020</v>
+      </c>
+      <c r="E328" s="2">
+        <v>4629</v>
+      </c>
+      <c r="F328" s="2">
+        <v>193</v>
+      </c>
+      <c r="G328" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="2">
+        <v>147965</v>
+      </c>
+      <c r="B329" s="2">
+        <v>23655</v>
+      </c>
+      <c r="C329">
+        <v>15</v>
+      </c>
+      <c r="D329">
+        <v>2020</v>
+      </c>
+      <c r="E329" s="2">
+        <v>4858</v>
+      </c>
+      <c r="F329" s="2">
+        <v>253</v>
+      </c>
+      <c r="G329" s="2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="2">
+        <v>147067</v>
+      </c>
+      <c r="B330" s="2">
+        <v>18693</v>
+      </c>
+      <c r="C330">
+        <v>16</v>
+      </c>
+      <c r="D330">
+        <v>2020</v>
+      </c>
+      <c r="E330" s="2">
+        <v>5225</v>
+      </c>
+      <c r="F330" s="2">
+        <v>254</v>
+      </c>
+      <c r="G330" s="2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="2">
+        <v>151785</v>
+      </c>
+      <c r="B331" s="2">
+        <v>16186</v>
+      </c>
+      <c r="C331">
+        <v>17</v>
+      </c>
+      <c r="D331">
+        <v>2020</v>
+      </c>
+      <c r="E331" s="2">
+        <v>5267</v>
+      </c>
+      <c r="F331" s="2">
+        <v>256</v>
+      </c>
+      <c r="G331" s="2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="2">
+        <v>162821</v>
+      </c>
+      <c r="B332" s="2">
+        <v>15898</v>
+      </c>
+      <c r="C332">
+        <v>18</v>
+      </c>
+      <c r="D332">
+        <v>2020</v>
+      </c>
+      <c r="E332" s="2">
+        <v>5544</v>
+      </c>
+      <c r="F332" s="2">
+        <v>297</v>
+      </c>
+      <c r="G332" s="2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="2">
+        <v>167513</v>
+      </c>
+      <c r="B333" s="2">
+        <v>16069</v>
+      </c>
+      <c r="C333">
+        <v>19</v>
+      </c>
+      <c r="D333">
+        <v>2020</v>
+      </c>
+      <c r="E333" s="2">
+        <v>5688</v>
+      </c>
+      <c r="F333" s="2">
+        <v>271</v>
+      </c>
+      <c r="G333" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="2">
+        <v>164512</v>
+      </c>
+      <c r="B334" s="2">
+        <v>16028</v>
+      </c>
+      <c r="C334">
+        <v>20</v>
+      </c>
+      <c r="D334">
+        <v>2020</v>
+      </c>
+      <c r="E334" s="2">
+        <v>4965</v>
+      </c>
+      <c r="F334" s="2">
+        <v>302</v>
+      </c>
+      <c r="G334" s="2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="2">
+        <v>164435</v>
+      </c>
+      <c r="B335" s="2">
+        <v>17308</v>
+      </c>
+      <c r="C335">
+        <v>21</v>
+      </c>
+      <c r="D335">
+        <v>2020</v>
+      </c>
+      <c r="E335" s="2">
+        <v>4950</v>
+      </c>
+      <c r="F335" s="2">
+        <v>250</v>
+      </c>
+      <c r="G335" s="2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="2">
+        <v>163212</v>
+      </c>
+      <c r="B336" s="2">
+        <v>16664</v>
+      </c>
+      <c r="C336">
+        <v>22</v>
+      </c>
+      <c r="D336">
+        <v>2020</v>
+      </c>
+      <c r="E336" s="2">
+        <v>4952</v>
+      </c>
+      <c r="F336" s="2">
+        <v>225</v>
+      </c>
+      <c r="G336" s="2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="2">
+        <v>154570</v>
+      </c>
+      <c r="B337" s="2">
+        <v>14219</v>
+      </c>
+      <c r="C337">
+        <v>23</v>
+      </c>
+      <c r="D337">
+        <v>2020</v>
+      </c>
+      <c r="E337" s="2">
+        <v>4607</v>
+      </c>
+      <c r="F337" s="2">
+        <v>252</v>
+      </c>
+      <c r="G337" s="2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="2">
+        <v>148949</v>
+      </c>
+      <c r="B338" s="2">
+        <v>12212</v>
+      </c>
+      <c r="C338">
+        <v>24</v>
+      </c>
+      <c r="D338">
+        <v>2020</v>
+      </c>
+      <c r="E338" s="2">
+        <v>4530</v>
+      </c>
+      <c r="F338" s="2">
+        <v>277</v>
+      </c>
+      <c r="G338" s="2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="2">
+        <v>147075</v>
+      </c>
+      <c r="B339" s="2">
+        <v>10682</v>
+      </c>
+      <c r="C339">
+        <v>25</v>
+      </c>
+      <c r="D339">
+        <v>2020</v>
+      </c>
+      <c r="E339" s="2">
+        <v>4889</v>
+      </c>
+      <c r="F339" s="2">
+        <v>264</v>
+      </c>
+      <c r="G339" s="2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="2">
+        <v>143807</v>
+      </c>
+      <c r="B340" s="2">
+        <v>9092</v>
+      </c>
+      <c r="C340">
+        <v>26</v>
+      </c>
+      <c r="D340">
+        <v>2020</v>
+      </c>
+      <c r="E340" s="2">
+        <v>4908</v>
+      </c>
+      <c r="F340" s="2">
+        <v>275</v>
+      </c>
+      <c r="G340" s="2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="2">
+        <v>150551</v>
+      </c>
+      <c r="B341" s="2">
+        <v>9208</v>
+      </c>
+      <c r="C341">
+        <v>27</v>
+      </c>
+      <c r="D341">
+        <v>2020</v>
+      </c>
+      <c r="E341" s="2">
+        <v>5293</v>
+      </c>
+      <c r="F341" s="2">
+        <v>291</v>
+      </c>
+      <c r="G341" s="2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="2">
+        <v>157318</v>
+      </c>
+      <c r="B342" s="2">
+        <v>9023</v>
+      </c>
+      <c r="C342">
+        <v>28</v>
+      </c>
+      <c r="D342">
+        <v>2020</v>
+      </c>
+      <c r="E342" s="2">
+        <v>5760</v>
+      </c>
+      <c r="F342" s="2">
+        <v>307</v>
+      </c>
+      <c r="G342" s="2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="2">
+        <v>167133</v>
+      </c>
+      <c r="B343" s="2">
+        <v>9205</v>
+      </c>
+      <c r="C343">
+        <v>29</v>
+      </c>
+      <c r="D343">
+        <v>2020</v>
+      </c>
+      <c r="E343" s="2">
+        <v>5992</v>
+      </c>
+      <c r="F343" s="2">
+        <v>317</v>
+      </c>
+      <c r="G343" s="2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="2">
+        <v>170359</v>
+      </c>
+      <c r="B344" s="2">
+        <v>9020</v>
+      </c>
+      <c r="C344">
+        <v>30</v>
+      </c>
+      <c r="D344">
+        <v>2020</v>
+      </c>
+      <c r="E344" s="2">
+        <v>6248</v>
+      </c>
+      <c r="F344" s="2">
+        <v>357</v>
+      </c>
+      <c r="G344" s="2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="2">
+        <v>169443</v>
+      </c>
+      <c r="B345" s="2">
+        <v>8788</v>
+      </c>
+      <c r="C345">
+        <v>31</v>
+      </c>
+      <c r="D345">
+        <v>2020</v>
+      </c>
+      <c r="E345" s="2">
+        <v>6243</v>
+      </c>
+      <c r="F345" s="2">
+        <v>333</v>
+      </c>
+      <c r="G345" s="2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="2">
+        <v>175747</v>
+      </c>
+      <c r="B346" s="2">
+        <v>9445</v>
+      </c>
+      <c r="C346">
+        <v>32</v>
+      </c>
+      <c r="D346">
+        <v>2020</v>
+      </c>
+      <c r="E346" s="2">
+        <v>6303</v>
+      </c>
+      <c r="F346" s="2">
+        <v>315</v>
+      </c>
+      <c r="G346" s="2">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="2">
+        <v>171168</v>
+      </c>
+      <c r="B347" s="2">
+        <v>9467</v>
+      </c>
+      <c r="C347">
+        <v>33</v>
+      </c>
+      <c r="D347">
+        <v>2020</v>
+      </c>
+      <c r="E347" s="2">
+        <v>6232</v>
+      </c>
+      <c r="F347" s="2">
+        <v>322</v>
+      </c>
+      <c r="G347" s="2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="2">
+        <v>179172</v>
+      </c>
+      <c r="B348" s="2">
+        <v>10176</v>
+      </c>
+      <c r="C348">
+        <v>34</v>
+      </c>
+      <c r="D348">
+        <v>2020</v>
+      </c>
+      <c r="E348" s="2">
+        <v>6319</v>
+      </c>
+      <c r="F348" s="2">
+        <v>312</v>
+      </c>
+      <c r="G348" s="2">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="2">
+        <v>183337</v>
+      </c>
+      <c r="B349" s="2">
+        <v>10853</v>
+      </c>
+      <c r="C349">
+        <v>35</v>
+      </c>
+      <c r="D349">
+        <v>2020</v>
+      </c>
+      <c r="E349" s="2">
+        <v>6463</v>
+      </c>
+      <c r="F349" s="2">
+        <v>339</v>
+      </c>
+      <c r="G349" s="2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="2">
+        <v>192352</v>
+      </c>
+      <c r="B350" s="2">
+        <v>11273</v>
+      </c>
+      <c r="C350">
+        <v>36</v>
+      </c>
+      <c r="D350">
+        <v>2020</v>
+      </c>
+      <c r="E350" s="2">
+        <v>6639</v>
+      </c>
+      <c r="F350" s="2">
+        <v>336</v>
+      </c>
+      <c r="G350" s="2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="2">
+        <v>199033</v>
+      </c>
+      <c r="B351" s="2">
+        <v>12066</v>
+      </c>
+      <c r="C351">
+        <v>37</v>
+      </c>
+      <c r="D351">
+        <v>2020</v>
+      </c>
+      <c r="E351" s="2">
+        <v>6747</v>
+      </c>
+      <c r="F351" s="2">
+        <v>343</v>
+      </c>
+      <c r="G351" s="2">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="2">
+        <v>195719</v>
+      </c>
+      <c r="B352" s="2">
+        <v>11346</v>
+      </c>
+      <c r="C352">
+        <v>38</v>
+      </c>
+      <c r="D352">
+        <v>2020</v>
+      </c>
+      <c r="E352" s="2">
+        <v>5998</v>
+      </c>
+      <c r="F352" s="2">
+        <v>330</v>
+      </c>
+      <c r="G352" s="2">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="2">
+        <v>228562</v>
+      </c>
+      <c r="B353" s="2">
+        <v>14716</v>
+      </c>
+      <c r="C353">
+        <v>39</v>
+      </c>
+      <c r="D353">
+        <v>2020</v>
+      </c>
+      <c r="E353" s="2">
+        <v>7317</v>
+      </c>
+      <c r="F353" s="2">
+        <v>374</v>
+      </c>
+      <c r="G353" s="2">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="2">
+        <v>211497</v>
+      </c>
+      <c r="B354" s="2">
+        <v>13241</v>
+      </c>
+      <c r="C354">
+        <v>40</v>
+      </c>
+      <c r="D354">
+        <v>2020</v>
+      </c>
+      <c r="E354" s="2">
+        <v>6971</v>
+      </c>
+      <c r="F354" s="2">
+        <v>359</v>
+      </c>
+      <c r="G354" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="2">
+        <v>214755</v>
+      </c>
+      <c r="B355" s="2">
+        <v>13269</v>
+      </c>
+      <c r="C355">
+        <v>41</v>
+      </c>
+      <c r="D355">
+        <v>2020</v>
+      </c>
+      <c r="E355" s="2">
+        <v>6945</v>
+      </c>
+      <c r="F355" s="2">
+        <v>421</v>
+      </c>
+      <c r="G355" s="2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="2">
+        <v>226170</v>
+      </c>
+      <c r="B356" s="2">
+        <v>13596</v>
+      </c>
+      <c r="C356">
+        <v>42</v>
+      </c>
+      <c r="D356">
+        <v>2020</v>
+      </c>
+      <c r="E356" s="2">
+        <v>7174</v>
+      </c>
+      <c r="F356" s="2">
+        <v>406</v>
+      </c>
+      <c r="G356" s="2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="2">
+        <v>227171</v>
+      </c>
+      <c r="B357" s="2">
+        <v>13916</v>
+      </c>
+      <c r="C357">
+        <v>43</v>
+      </c>
+      <c r="D357">
+        <v>2020</v>
+      </c>
+      <c r="E357" s="2">
+        <v>7029</v>
+      </c>
+      <c r="F357" s="2">
+        <v>405</v>
+      </c>
+      <c r="G357" s="2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="2">
+        <v>228349</v>
+      </c>
+      <c r="B358" s="2">
+        <v>14709</v>
+      </c>
+      <c r="C358">
+        <v>44</v>
+      </c>
+      <c r="D358">
+        <v>2020</v>
+      </c>
+      <c r="E358" s="2">
+        <v>7109</v>
+      </c>
+      <c r="F358" s="2">
+        <v>397</v>
+      </c>
+      <c r="G358" s="2">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="2">
+        <v>237739</v>
+      </c>
+      <c r="B359" s="2">
+        <v>15277</v>
+      </c>
+      <c r="C359">
+        <v>45</v>
+      </c>
+      <c r="D359">
+        <v>2020</v>
+      </c>
+      <c r="E359" s="2">
+        <v>7358</v>
+      </c>
+      <c r="F359" s="2">
+        <v>392</v>
+      </c>
+      <c r="G359" s="2">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="2">
+        <v>243121</v>
+      </c>
+      <c r="B360" s="2">
+        <v>15343</v>
+      </c>
+      <c r="C360">
+        <v>46</v>
+      </c>
+      <c r="D360">
+        <v>2020</v>
+      </c>
+      <c r="E360" s="2">
+        <v>7434</v>
+      </c>
+      <c r="F360" s="2">
+        <v>392</v>
+      </c>
+      <c r="G360" s="2">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="2">
+        <v>244288</v>
+      </c>
+      <c r="B361" s="2">
+        <v>16147</v>
+      </c>
+      <c r="C361">
+        <v>47</v>
+      </c>
+      <c r="D361">
+        <v>2020</v>
+      </c>
+      <c r="E361" s="2">
+        <v>7427</v>
+      </c>
+      <c r="F361" s="2">
+        <v>404</v>
+      </c>
+      <c r="G361" s="2">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="2">
+        <v>250885</v>
+      </c>
+      <c r="B362" s="2">
+        <v>16689</v>
+      </c>
+      <c r="C362">
+        <v>48</v>
+      </c>
+      <c r="D362">
+        <v>2020</v>
+      </c>
+      <c r="E362" s="2">
+        <v>7438</v>
+      </c>
+      <c r="F362" s="2">
+        <v>377</v>
+      </c>
+      <c r="G362" s="2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="2">
+        <v>250139</v>
+      </c>
+      <c r="B363" s="2">
+        <v>16714</v>
+      </c>
+      <c r="C363">
+        <v>49</v>
+      </c>
+      <c r="D363">
+        <v>2020</v>
+      </c>
+      <c r="E363" s="2">
+        <v>7285</v>
+      </c>
+      <c r="F363" s="2">
+        <v>382</v>
+      </c>
+      <c r="G363" s="2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="2">
+        <v>248546</v>
+      </c>
+      <c r="B364" s="2">
+        <v>16177</v>
+      </c>
+      <c r="C364">
+        <v>50</v>
+      </c>
+      <c r="D364">
+        <v>2020</v>
+      </c>
+      <c r="E364" s="2">
+        <v>6818</v>
+      </c>
+      <c r="F364" s="2">
+        <v>327</v>
+      </c>
+      <c r="G364" s="2">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="2">
+        <v>240552</v>
+      </c>
+      <c r="B365" s="2">
+        <v>15716</v>
+      </c>
+      <c r="C365">
+        <v>51</v>
+      </c>
+      <c r="D365">
+        <v>2020</v>
+      </c>
+      <c r="E365" s="2">
+        <v>6694</v>
+      </c>
+      <c r="F365" s="2">
+        <v>342</v>
+      </c>
+      <c r="G365" s="2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="2">
+        <v>233166</v>
+      </c>
+      <c r="B366" s="2">
+        <v>14922</v>
+      </c>
+      <c r="C366">
+        <v>52</v>
+      </c>
+      <c r="D366">
+        <v>2020</v>
+      </c>
+      <c r="E366" s="2">
+        <v>6218</v>
+      </c>
+      <c r="F366" s="2">
+        <v>384</v>
+      </c>
+      <c r="G366" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="2">
+        <v>255290</v>
+      </c>
+      <c r="B367" s="2">
+        <v>16703</v>
+      </c>
+      <c r="C367">
+        <v>53</v>
+      </c>
+      <c r="D367">
+        <v>2020</v>
+      </c>
+      <c r="E367" s="2">
+        <v>6678</v>
+      </c>
+      <c r="F367" s="2">
+        <v>395</v>
+      </c>
+      <c r="G367" s="2">
+        <v>796</v>
       </c>
     </row>
   </sheetData>
